--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\SeleniumLectures\SeleniumAutomation\test-resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C4506D-1025-41BC-BFEE-EDB8DDF365ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B824136E-C171-4238-B3F6-EB34CD387E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19455" windowHeight="11820" tabRatio="773" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,8 @@
     <sheet name="Add User Cases" sheetId="5" r:id="rId8"/>
     <sheet name="Travel_Request" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I7"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="433">
   <si>
     <t>Seriel No</t>
   </si>
@@ -1190,9 +1186,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Dashboard is not available, Test case is failed</t>
-  </si>
-  <si>
     <t>May/18/2020</t>
   </si>
   <si>
@@ -1314,6 +1307,30 @@
   </si>
   <si>
     <t>FionaxSRf</t>
+  </si>
+  <si>
+    <t>Amanda Cooper is not validated, Test case is failed</t>
+  </si>
+  <si>
+    <t>In Progress is not validated, Test case is failed</t>
+  </si>
+  <si>
+    <t>Fiona Grace</t>
+  </si>
+  <si>
+    <t>Jacqueline White</t>
+  </si>
+  <si>
+    <t>Mon, 27 Apr 2020</t>
+  </si>
+  <si>
+    <t>Khloe Jayden</t>
+  </si>
+  <si>
+    <t>Ehioze Ebo</t>
+  </si>
+  <si>
+    <t>Tue, 28 Apr 2020</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1535,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1749,18 +1766,18 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B55"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="50.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="50.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1786,19 +1803,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1817,8 +1834,14 @@
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1838,7 +1861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1858,7 +1881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1878,7 +1901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1898,7 +1921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1918,7 +1941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1938,7 +1961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1958,7 +1981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1978,7 +2001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1997,20 +2020,26 @@
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="G12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2036,7 +2065,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -2056,7 +2085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -2076,7 +2105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -2096,7 +2125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -2116,7 +2145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -2136,7 +2165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -2156,7 +2185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -2176,7 +2205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -2196,7 +2225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -2216,19 +2245,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2248,7 +2277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -2268,7 +2297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -2288,7 +2317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -2308,7 +2337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -2328,7 +2357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -2348,7 +2377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -2368,7 +2397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>8</v>
       </c>
@@ -2388,7 +2417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>9</v>
       </c>
@@ -2408,7 +2437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2428,19 +2457,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -2466,7 +2495,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -2486,7 +2515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -2506,7 +2535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -2526,7 +2555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -2546,7 +2575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>6</v>
       </c>
@@ -2566,7 +2595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>7</v>
       </c>
@@ -2586,7 +2615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>8</v>
       </c>
@@ -2606,7 +2635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>9</v>
       </c>
@@ -2626,7 +2655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>10</v>
       </c>
@@ -2646,19 +2675,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-    </row>
-    <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>1</v>
       </c>
@@ -2678,13 +2707,13 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="H47" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>2</v>
       </c>
@@ -2704,7 +2733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>3</v>
       </c>
@@ -2724,7 +2753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>4</v>
       </c>
@@ -2744,7 +2773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>5</v>
       </c>
@@ -2764,7 +2793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>6</v>
       </c>
@@ -2784,7 +2813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>7</v>
       </c>
@@ -2804,7 +2833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>8</v>
       </c>
@@ -2824,7 +2853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>9</v>
       </c>
@@ -2844,7 +2873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>10</v>
       </c>
@@ -2864,19 +2893,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>1</v>
       </c>
@@ -2902,7 +2931,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>2</v>
       </c>
@@ -2922,7 +2951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>3</v>
       </c>
@@ -2942,7 +2971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>4</v>
       </c>
@@ -2962,7 +2991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>5</v>
       </c>
@@ -2982,7 +3011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>6</v>
       </c>
@@ -3002,7 +3031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>7</v>
       </c>
@@ -3022,7 +3051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>8</v>
       </c>
@@ -3042,7 +3071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>9</v>
       </c>
@@ -3062,7 +3091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>10</v>
       </c>
@@ -3082,19 +3111,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>1</v>
       </c>
@@ -3120,7 +3149,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>2</v>
       </c>
@@ -3146,7 +3175,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>3</v>
       </c>
@@ -3166,7 +3195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>4</v>
       </c>
@@ -3186,7 +3215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>5</v>
       </c>
@@ -3206,7 +3235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>6</v>
       </c>
@@ -3307,16 +3336,16 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -3542,22 +3571,22 @@
       <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.6328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="28.6328125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="27.453125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -3604,7 +3633,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -3651,7 +3680,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -3698,7 +3727,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
@@ -3745,7 +3774,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -3792,7 +3821,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>91</v>
       </c>
@@ -3839,7 +3868,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
@@ -3886,7 +3915,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>103</v>
       </c>
@@ -3933,7 +3962,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>109</v>
       </c>
@@ -3980,7 +4009,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
@@ -4027,7 +4056,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>122</v>
       </c>
@@ -4092,18 +4121,18 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -4129,7 +4158,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -4146,13 +4175,13 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" t="s">
         <v>389</v>
       </c>
-      <c r="L2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -4169,7 +4198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
@@ -4186,7 +4215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -4203,7 +4232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>91</v>
       </c>
@@ -4220,7 +4249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
@@ -4237,7 +4266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>103</v>
       </c>
@@ -4254,7 +4283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>109</v>
       </c>
@@ -4271,7 +4300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
@@ -4288,7 +4317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>122</v>
       </c>
@@ -4323,21 +4352,21 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -4372,7 +4401,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -4389,7 +4418,7 @@
         <v>43</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>282</v>
@@ -4407,7 +4436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -4442,7 +4471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
@@ -4477,7 +4506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -4512,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>91</v>
       </c>
@@ -4547,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
@@ -4582,7 +4611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>103</v>
       </c>
@@ -4617,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>109</v>
       </c>
@@ -4652,7 +4681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
@@ -4687,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>122</v>
       </c>
@@ -4741,18 +4770,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.453125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4787,7 +4816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
@@ -4822,7 +4851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>59</v>
       </c>
@@ -4857,7 +4886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>72</v>
       </c>
@@ -4892,7 +4921,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>80</v>
       </c>
@@ -4927,7 +4956,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>91</v>
       </c>
@@ -4962,7 +4991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>97</v>
       </c>
@@ -4997,7 +5026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>103</v>
       </c>
@@ -5032,7 +5061,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>109</v>
       </c>
@@ -5067,7 +5096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>115</v>
       </c>
@@ -5102,7 +5131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>122</v>
       </c>
@@ -5137,7 +5166,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -5152,7 +5181,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -5183,14 +5212,14 @@
       <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.26953125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5248,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
@@ -5238,17 +5267,17 @@
       <c r="F2" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>392</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>393</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>59</v>
       </c>
@@ -5267,17 +5296,17 @@
       <c r="F3" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>392</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>393</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>72</v>
       </c>
@@ -5296,17 +5325,17 @@
       <c r="F4" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>394</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>395</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>80</v>
       </c>
@@ -5325,17 +5354,17 @@
       <c r="F5" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>396</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>397</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>91</v>
       </c>
@@ -5354,17 +5383,17 @@
       <c r="F6" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>398</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>399</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>97</v>
       </c>
@@ -5383,17 +5412,17 @@
       <c r="F7" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>396</v>
+      <c r="G7" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>103</v>
       </c>
@@ -5412,17 +5441,17 @@
       <c r="F8" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>396</v>
+      <c r="G8" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>109</v>
       </c>
@@ -5441,17 +5470,17 @@
       <c r="F9" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>402</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>403</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>115</v>
       </c>
@@ -5470,17 +5499,17 @@
       <c r="F10" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>396</v>
+      <c r="G10" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>122</v>
       </c>
@@ -5499,11 +5528,11 @@
       <c r="F11" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>404</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>405</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>168</v>
@@ -5521,24 +5550,24 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="30" width="14.453125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="22.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="30" width="11.26953125" collapsed="true"/>
-    <col min="4" max="6" style="30" width="14.453125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="30" width="23.08984375" collapsed="true"/>
-    <col min="8" max="9" style="30" width="14.453125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="30" width="29.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="30" width="17.7265625" collapsed="true"/>
-    <col min="12" max="16384" style="30" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" style="30" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="30" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="30" width="11.28515625" collapsed="true"/>
+    <col min="4" max="6" style="30" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="30" width="23.140625" collapsed="true"/>
+    <col min="8" max="9" style="30" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="30" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="30" width="17.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="30" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5582,7 +5611,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
@@ -5602,7 +5631,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>47</v>
@@ -5614,13 +5643,19 @@
         <v>50</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>57</v>
+        <v>292</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="M2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>59</v>
       </c>
@@ -5640,10 +5675,10 @@
         <v>65</v>
       </c>
       <c r="G3" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>407</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>408</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>66</v>
@@ -5655,7 +5690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>72</v>
       </c>
@@ -5675,10 +5710,10 @@
         <v>73</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>409</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>410</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>77</v>
@@ -5687,7 +5722,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>80</v>
       </c>
@@ -5707,10 +5742,10 @@
         <v>87</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>411</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>412</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>48</v>
@@ -5719,7 +5754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>91</v>
       </c>
@@ -5739,10 +5774,10 @@
         <v>93</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>413</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>414</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>66</v>
@@ -5751,7 +5786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>97</v>
       </c>
@@ -5771,10 +5806,10 @@
         <v>100</v>
       </c>
       <c r="G7" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>415</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>416</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>77</v>
@@ -5783,7 +5818,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>103</v>
       </c>
@@ -5803,10 +5838,10 @@
         <v>106</v>
       </c>
       <c r="G8" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>417</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>418</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>48</v>
@@ -5815,7 +5850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>109</v>
       </c>
@@ -5835,10 +5870,10 @@
         <v>110</v>
       </c>
       <c r="G9" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>419</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>420</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>66</v>
@@ -5847,7 +5882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>115</v>
       </c>
@@ -5867,10 +5902,10 @@
         <v>117</v>
       </c>
       <c r="G10" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>421</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>422</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>77</v>
@@ -5879,7 +5914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>122</v>
       </c>
@@ -5899,10 +5934,10 @@
         <v>124</v>
       </c>
       <c r="G11" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>423</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>424</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>48</v>
@@ -5910,8 +5945,20 @@
       <c r="J11" s="27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>430</v>
+      </c>
+      <c r="L11" t="s">
+        <v>431</v>
+      </c>
+      <c r="M11" t="s">
+        <v>428</v>
+      </c>
+      <c r="N11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>57</v>
       </c>
@@ -5939,7 +5986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" s="27" t="s">
         <v>57</v>
       </c>
@@ -5960,14 +6007,14 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" style="30" width="14.453125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="17.453125" collapsed="true"/>
-    <col min="7" max="16384" style="30" width="14.453125" collapsed="true"/>
+    <col min="1" max="5" style="30" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="30" width="17.42578125" collapsed="true"/>
+    <col min="7" max="16384" style="30" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5993,7 +6040,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
@@ -6016,10 +6063,10 @@
         <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>59</v>
       </c>
@@ -6042,7 +6089,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>72</v>
       </c>
@@ -6065,7 +6112,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>80</v>
       </c>
@@ -6088,7 +6135,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>91</v>
       </c>
@@ -6111,7 +6158,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>97</v>
       </c>
@@ -6134,7 +6181,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>103</v>
       </c>
@@ -6157,7 +6204,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>109</v>
       </c>
@@ -6180,7 +6227,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>115</v>
       </c>
@@ -6203,7 +6250,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>122</v>
       </c>
@@ -6239,25 +6286,25 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="27.54296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>203</v>
       </c>
@@ -6304,7 +6351,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -6324,10 +6371,10 @@
         <v>311</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>325</v>
@@ -6336,7 +6383,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -6356,10 +6403,10 @@
         <v>312</v>
       </c>
       <c r="G3" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>387</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>388</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>326</v>
@@ -6368,7 +6415,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
@@ -6400,7 +6447,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -6432,7 +6479,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>91</v>
       </c>
@@ -6464,7 +6511,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
@@ -6496,7 +6543,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>103</v>
       </c>
@@ -6528,7 +6575,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>109</v>
       </c>
@@ -6560,7 +6607,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
@@ -6592,7 +6639,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>122</v>
       </c>

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\SeleniumLectures\SeleniumAutomation\test-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesh\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C4506D-1025-41BC-BFEE-EDB8DDF365ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A832B-4B1C-491E-8267-C05EC3B3308A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="773" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="424">
   <si>
     <t>Seriel No</t>
   </si>
@@ -956,15 +956,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
     <t>Currency Name</t>
   </si>
   <si>
@@ -1193,27 +1184,12 @@
     <t>Dashboard is not available, Test case is failed</t>
   </si>
   <si>
-    <t>May/18/2020</t>
-  </si>
-  <si>
-    <t>May/15/2020</t>
-  </si>
-  <si>
-    <t>August/20/2020</t>
-  </si>
-  <si>
-    <t>August/25/2020</t>
-  </si>
-  <si>
     <t>United KingdomxvAguU</t>
   </si>
   <si>
     <t>+91 5</t>
   </si>
   <si>
-    <t>Clerk9963</t>
-  </si>
-  <si>
     <t>May/20/2020</t>
   </si>
   <si>
@@ -1314,6 +1290,24 @@
   </si>
   <si>
     <t>FionaxSRf</t>
+  </si>
+  <si>
+    <t>Existing Location Name</t>
+  </si>
+  <si>
+    <t>London Office</t>
+  </si>
+  <si>
+    <t>New York Sales Office</t>
+  </si>
+  <si>
+    <t>Texas R&amp;D</t>
+  </si>
+  <si>
+    <t>Sample Location</t>
+  </si>
+  <si>
+    <t>seleniumprep-trials65101.orangehrmlive.com is not validated, Test case is failed</t>
   </si>
 </sst>
 </file>
@@ -1505,9 +1499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
@@ -1518,10 +1509,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1749,8 +1741,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1787,16 +1779,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1999,16 +1991,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2030,10 +2022,10 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,16 +2209,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2247,6 +2239,12 @@
       <c r="F25" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2429,16 +2427,16 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -2460,10 +2458,10 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -2647,16 +2645,16 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
@@ -2678,10 +2676,10 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H47" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2865,16 +2863,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
@@ -2887,7 +2885,7 @@
         <v>264</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>27</v>
@@ -2896,10 +2894,10 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H58" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2913,7 +2911,7 @@
         <v>262</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>202</v>
@@ -2933,7 +2931,7 @@
         <v>265</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>34</v>
@@ -2953,7 +2951,7 @@
         <v>266</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>40</v>
@@ -2973,7 +2971,7 @@
         <v>267</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>27</v>
@@ -2993,7 +2991,7 @@
         <v>268</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>40</v>
@@ -3013,7 +3011,7 @@
         <v>269</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>64</v>
@@ -3033,7 +3031,7 @@
         <v>270</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>27</v>
@@ -3053,7 +3051,7 @@
         <v>271</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>27</v>
@@ -3073,7 +3071,7 @@
         <v>272</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>27</v>
@@ -3083,16 +3081,16 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
+      <c r="A68" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
@@ -3102,10 +3100,10 @@
         <v>260</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E69" t="s">
         <v>27</v>
@@ -3114,10 +3112,10 @@
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H69" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3128,10 +3126,10 @@
         <v>260</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E70" t="s">
         <v>34</v>
@@ -3140,10 +3138,10 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H70" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3154,10 +3152,10 @@
         <v>260</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E71" t="s">
         <v>40</v>
@@ -3174,10 +3172,10 @@
         <v>260</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E72" t="s">
         <v>64</v>
@@ -3194,10 +3192,10 @@
         <v>260</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E73" t="s">
         <v>202</v>
@@ -3214,10 +3212,10 @@
         <v>260</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E74" t="s">
         <v>27</v>
@@ -3234,10 +3232,10 @@
         <v>260</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E75" t="s">
         <v>40</v>
@@ -3254,10 +3252,10 @@
         <v>260</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E76" t="s">
         <v>34</v>
@@ -3274,10 +3272,10 @@
         <v>260</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E77" t="s">
         <v>27</v>
@@ -3294,10 +3292,10 @@
         <v>260</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E78" t="s">
         <v>27</v>
@@ -3307,16 +3305,16 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
+      <c r="A79" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -3326,10 +3324,10 @@
         <v>261</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E80" t="s">
         <v>27</v>
@@ -3346,10 +3344,10 @@
         <v>261</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E81" t="s">
         <v>34</v>
@@ -3366,10 +3364,10 @@
         <v>261</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E82" t="s">
         <v>27</v>
@@ -3386,10 +3384,10 @@
         <v>261</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E83" t="s">
         <v>64</v>
@@ -3406,10 +3404,10 @@
         <v>261</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E84" t="s">
         <v>202</v>
@@ -3426,10 +3424,10 @@
         <v>261</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
@@ -3446,10 +3444,10 @@
         <v>261</v>
       </c>
       <c r="C86" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="E86" t="s">
         <v>27</v>
@@ -3466,10 +3464,10 @@
         <v>261</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E87" t="s">
         <v>27</v>
@@ -3486,10 +3484,10 @@
         <v>261</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E88" t="s">
         <v>34</v>
@@ -3506,10 +3504,10 @@
         <v>261</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E89" t="s">
         <v>27</v>
@@ -3539,7 +3537,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3630,7 +3628,7 @@
         <v>225</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>242</v>
@@ -3642,13 +3640,13 @@
         <v>250</v>
       </c>
       <c r="M2" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>362</v>
-      </c>
       <c r="O2" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3677,7 +3675,7 @@
         <v>236</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>243</v>
@@ -3689,13 +3687,13 @@
         <v>251</v>
       </c>
       <c r="M3" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="N3" s="21" t="s">
-        <v>363</v>
-      </c>
       <c r="O3" s="20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3724,7 +3722,7 @@
         <v>226</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>244</v>
@@ -3736,13 +3734,13 @@
         <v>252</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3771,7 +3769,7 @@
         <v>235</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3783,13 +3781,13 @@
         <v>253</v>
       </c>
       <c r="M5" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="N5" s="21" t="s">
-        <v>362</v>
-      </c>
       <c r="O5" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3818,7 +3816,7 @@
         <v>234</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>246</v>
@@ -3830,13 +3828,13 @@
         <v>254</v>
       </c>
       <c r="M6" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>363</v>
-      </c>
       <c r="O6" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3865,7 +3863,7 @@
         <v>233</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>247</v>
@@ -3877,13 +3875,13 @@
         <v>255</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N7" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3912,7 +3910,7 @@
         <v>232</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>248</v>
@@ -3924,13 +3922,13 @@
         <v>256</v>
       </c>
       <c r="M8" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="N8" s="21" t="s">
-        <v>362</v>
-      </c>
       <c r="O8" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3959,7 +3957,7 @@
         <v>230</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>249</v>
@@ -3971,13 +3969,13 @@
         <v>257</v>
       </c>
       <c r="M9" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="N9" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>363</v>
-      </c>
       <c r="O9" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4006,7 +4004,7 @@
         <v>229</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>248</v>
@@ -4018,13 +4016,13 @@
         <v>258</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N10" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4053,7 +4051,7 @@
         <v>228</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>243</v>
@@ -4065,13 +4063,13 @@
         <v>250</v>
       </c>
       <c r="M11" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="N11" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="O11" s="20" t="s">
         <v>362</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4086,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A07C2E7-1AF9-4E6C-8A44-C55DF7F49724}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4098,12 +4096,13 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.7265625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="25.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -4119,17 +4118,20 @@
       <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -4145,14 +4147,17 @@
       <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -4168,8 +4173,11 @@
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
@@ -4185,8 +4193,11 @@
       <c r="E4" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -4202,8 +4213,11 @@
       <c r="E5" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>91</v>
       </c>
@@ -4219,8 +4233,11 @@
       <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
@@ -4236,8 +4253,11 @@
       <c r="E7" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>103</v>
       </c>
@@ -4253,8 +4273,11 @@
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>109</v>
       </c>
@@ -4270,8 +4293,11 @@
       <c r="E9" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
@@ -4287,8 +4313,11 @@
       <c r="E10" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>122</v>
       </c>
@@ -4304,6 +4333,7 @@
       <c r="E11" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4320,7 +4350,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F11" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4380,7 +4410,7 @@
         <v>260</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>41</v>
@@ -4388,14 +4418,12 @@
       <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>391</v>
-      </c>
+      <c r="F2" s="15"/>
       <c r="G2" s="7" t="s">
         <v>282</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>299</v>
@@ -4415,7 +4443,7 @@
         <v>260</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>41</v>
@@ -4423,14 +4451,12 @@
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>306</v>
-      </c>
+      <c r="F3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>283</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>299</v>
@@ -4450,7 +4476,7 @@
         <v>260</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>41</v>
@@ -4458,14 +4484,12 @@
       <c r="E4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>307</v>
-      </c>
+      <c r="F4" s="15"/>
       <c r="G4" s="7" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>300</v>
@@ -4485,7 +4509,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>41</v>
@@ -4493,14 +4517,12 @@
       <c r="E5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>307</v>
-      </c>
+      <c r="F5" s="15"/>
       <c r="G5" s="15" t="s">
         <v>285</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>305</v>
@@ -4520,7 +4542,7 @@
         <v>260</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>41</v>
@@ -4528,14 +4550,12 @@
       <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>286</v>
-      </c>
+      <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
         <v>286</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>300</v>
@@ -4555,7 +4575,7 @@
         <v>260</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>41</v>
@@ -4563,14 +4583,12 @@
       <c r="E7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>307</v>
-      </c>
+      <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
         <v>287</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>297</v>
@@ -4590,7 +4608,7 @@
         <v>260</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>41</v>
@@ -4598,9 +4616,7 @@
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>307</v>
-      </c>
+      <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
         <v>288</v>
       </c>
@@ -4625,7 +4641,7 @@
         <v>260</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>41</v>
@@ -4633,9 +4649,7 @@
       <c r="E9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>308</v>
-      </c>
+      <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
         <v>289</v>
       </c>
@@ -4660,7 +4674,7 @@
         <v>260</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>41</v>
@@ -4668,9 +4682,7 @@
       <c r="E10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>307</v>
-      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
         <v>290</v>
       </c>
@@ -4695,7 +4707,7 @@
         <v>260</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>41</v>
@@ -4703,9 +4715,7 @@
       <c r="E11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>308</v>
-      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
         <v>291</v>
       </c>
@@ -4753,419 +4763,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="D4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="D5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="D6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="D7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="D9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="D10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="D11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="27" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="27" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5180,7 +5190,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="G2" sqref="G2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5191,321 +5201,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H7" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="H8" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="26" t="s">
+    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="C10" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="H10" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="26" t="s">
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="C11" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H11" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5527,46 +5537,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="30" width="14.453125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="22.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="30" width="11.26953125" collapsed="true"/>
-    <col min="4" max="6" style="30" width="14.453125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="30" width="23.08984375" collapsed="true"/>
-    <col min="8" max="9" style="30" width="14.453125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="30" width="29.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="30" width="17.7265625" collapsed="true"/>
-    <col min="12" max="16384" style="30" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" style="29" width="14.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="29" width="22.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="29" width="11.26953125" collapsed="true"/>
+    <col min="4" max="6" style="29" width="14.453125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="29" width="23.08984375" collapsed="true"/>
+    <col min="8" max="9" style="29" width="14.453125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="29" width="29.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="29" width="17.7265625" collapsed="true"/>
+    <col min="12" max="16384" style="29" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -5583,364 +5593,364 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="27" t="s">
+      <c r="I6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J8" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="27" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="27" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5962,31 +5972,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" style="30" width="14.453125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="17.453125" collapsed="true"/>
-    <col min="7" max="16384" style="30" width="14.453125" collapsed="true"/>
+    <col min="1" max="5" style="29" width="14.453125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="17.453125" collapsed="true"/>
+    <col min="7" max="16384" style="29" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -5994,235 +6004,235 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="D6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="D7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="D8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="29" t="s">
+      <c r="D9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="D10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="29" t="s">
+      <c r="D11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6235,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51735CCE-AD12-41B8-BE1D-C09549EADDDD}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6246,8 +6256,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="27.54296875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
@@ -6274,34 +6283,34 @@
         <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -6312,7 +6321,7 @@
         <v>261</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>41</v>
@@ -6321,19 +6330,19 @@
         <v>43</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="H2" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>385</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6344,7 +6353,7 @@
         <v>261</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>41</v>
@@ -6353,19 +6362,19 @@
         <v>43</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>388</v>
+        <v>309</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>385</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -6376,7 +6385,7 @@
         <v>261</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>41</v>
@@ -6385,19 +6394,19 @@
         <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="22">
-        <v>44353</v>
-      </c>
-      <c r="H4" s="22">
-        <v>44359</v>
+        <v>310</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>387</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -6408,7 +6417,7 @@
         <v>261</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>41</v>
@@ -6417,19 +6426,19 @@
         <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" s="22">
-        <v>44195</v>
-      </c>
-      <c r="H5" s="22">
-        <v>44199</v>
+        <v>311</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>389</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -6440,7 +6449,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>41</v>
@@ -6449,19 +6458,19 @@
         <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="22">
-        <v>44496</v>
-      </c>
-      <c r="H6" s="22">
-        <v>44501</v>
+        <v>312</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>391</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -6472,7 +6481,7 @@
         <v>261</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>41</v>
@@ -6481,19 +6490,19 @@
         <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G7" s="22">
-        <v>44086</v>
-      </c>
-      <c r="H7" s="22">
-        <v>44088</v>
+        <v>313</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6504,7 +6513,7 @@
         <v>261</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>41</v>
@@ -6513,19 +6522,19 @@
         <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G8" s="22">
-        <v>44513</v>
-      </c>
-      <c r="H8" s="22">
-        <v>44515</v>
+        <v>314</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -6536,7 +6545,7 @@
         <v>261</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>41</v>
@@ -6545,19 +6554,19 @@
         <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G9" s="22">
-        <v>44176</v>
-      </c>
-      <c r="H9" s="22">
-        <v>44180</v>
+        <v>315</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6568,7 +6577,7 @@
         <v>261</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>41</v>
@@ -6577,19 +6586,19 @@
         <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="22">
-        <v>44321</v>
-      </c>
-      <c r="H10" s="22">
-        <v>44335</v>
+        <v>316</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -6600,7 +6609,7 @@
         <v>261</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>41</v>
@@ -6609,19 +6618,19 @@
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G11" s="22">
-        <v>44083</v>
-      </c>
-      <c r="H11" s="22">
-        <v>44114</v>
+        <v>317</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>397</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schakil\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D55298-91B2-44E8-8A2A-AA323A647BA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01457401-2AFA-4572-A612-3FC49B8408E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2007,8 +2007,8 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schakil\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01457401-2AFA-4572-A612-3FC49B8408E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF1E6E8-F25F-4BE4-B693-21D6B86A9D6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="491">
   <si>
     <t>S. No</t>
   </si>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2134,12 +2134,18 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schakil\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF1E6E8-F25F-4BE4-B693-21D6B86A9D6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D801DA20-0070-400B-82A8-76E462AC7B8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="Add Employee" sheetId="2" r:id="rId2"/>
-    <sheet name="Edit User" sheetId="3" r:id="rId3"/>
-    <sheet name="Add Vacancy" sheetId="4" r:id="rId4"/>
-    <sheet name="EditEmployee" sheetId="5" r:id="rId5"/>
-    <sheet name="Apply Leave" sheetId="6" r:id="rId6"/>
-    <sheet name="Add User" sheetId="7" r:id="rId7"/>
-    <sheet name="Deciplinary Cases" sheetId="8" r:id="rId8"/>
-    <sheet name="Travel Request" sheetId="9" r:id="rId9"/>
+    <sheet name="Login" sheetId="10" r:id="rId2"/>
+    <sheet name="Add Employee" sheetId="2" r:id="rId3"/>
+    <sheet name="Edit User" sheetId="3" r:id="rId4"/>
+    <sheet name="Add Vacancy" sheetId="4" r:id="rId5"/>
+    <sheet name="EditEmployee" sheetId="5" r:id="rId6"/>
+    <sheet name="Apply Leave" sheetId="6" r:id="rId7"/>
+    <sheet name="Add User" sheetId="7" r:id="rId8"/>
+    <sheet name="Deciplinary Cases" sheetId="8" r:id="rId9"/>
+    <sheet name="Travel Request" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$I$100</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="505">
   <si>
     <t>S. No</t>
   </si>
@@ -1504,6 +1505,48 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>TC_00_LoginLogout</t>
+  </si>
+  <si>
+    <t>TC_00_01</t>
+  </si>
+  <si>
+    <t>TC_00_02</t>
+  </si>
+  <si>
+    <t>TC_00_03</t>
+  </si>
+  <si>
+    <t>TC_00_04</t>
+  </si>
+  <si>
+    <t>TC_00_05</t>
+  </si>
+  <si>
+    <t>TC_00_06</t>
+  </si>
+  <si>
+    <t>TC_00_07</t>
+  </si>
+  <si>
+    <t>TC_00_08</t>
+  </si>
+  <si>
+    <t>TC_00_09</t>
+  </si>
+  <si>
+    <t>TC_00_10</t>
+  </si>
+  <si>
+    <t>Orange HRM Application Login and Logout</t>
+  </si>
+  <si>
+    <t>alice</t>
+  </si>
+  <si>
+    <t>Test123</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2048,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2016,9 +2059,10 @@
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.54296875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.90625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="15.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="65.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -2066,17 +2110,17 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>491</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -2087,22 +2131,20 @@
       <c r="H3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>491</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -2110,28 +2152,23 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>408</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" t="s">
         <v>133</v>
       </c>
-      <c r="I4" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>491</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -2143,25 +2180,22 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>491</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -2169,17 +2203,17 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>491</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -2190,20 +2224,20 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>491</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -2211,17 +2245,17 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>491</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -2229,22 +2263,20 @@
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>490</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>491</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -2255,17 +2287,17 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>491</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -2276,17 +2308,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>491</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -2297,30 +2329,30 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -2328,10 +2360,7 @@
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>133</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -2340,61 +2369,75 @@
     </row>
     <row r="15" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>410</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>411</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
@@ -2403,16 +2446,16 @@
     </row>
     <row r="18" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>413</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -2420,25 +2463,23 @@
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>408</v>
-      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>414</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -2447,37 +2488,39 @@
     </row>
     <row r="20" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>416</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
@@ -2489,16 +2532,16 @@
     </row>
     <row r="22" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>417</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -2510,16 +2553,16 @@
     </row>
     <row r="23" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>418</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
@@ -2531,7 +2574,7 @@
     </row>
     <row r="24" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -2544,24 +2587,26 @@
     </row>
     <row r="25" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>142</v>
+        <v>409</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>133</v>
       </c>
@@ -2571,75 +2616,61 @@
     </row>
     <row r="26" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>145</v>
+        <v>410</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
+        <v>132</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="27" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>146</v>
+        <v>411</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H27" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" t="s">
-        <v>134</v>
-      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>147</v>
+        <v>412</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>24</v>
+        <v>132</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -2648,40 +2679,42 @@
     </row>
     <row r="29" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>148</v>
+        <v>413</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>149</v>
+        <v>414</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
+        <v>132</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
@@ -2690,19 +2723,19 @@
     </row>
     <row r="31" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>151</v>
+        <v>415</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
@@ -2711,19 +2744,19 @@
     </row>
     <row r="32" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>154</v>
+        <v>416</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
+        <v>132</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -2732,18 +2765,18 @@
     </row>
     <row r="33" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>157</v>
+        <v>417</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2753,18 +2786,18 @@
     </row>
     <row r="34" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>158</v>
+        <v>418</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2774,7 +2807,7 @@
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -2787,24 +2820,24 @@
     </row>
     <row r="36" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>163</v>
+        <v>419</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
         <v>133</v>
       </c>
@@ -2814,61 +2847,75 @@
     </row>
     <row r="37" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>168</v>
+        <v>420</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="2"/>
+      <c r="H37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>169</v>
+        <v>421</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>170</v>
+        <v>422</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
@@ -2877,19 +2924,19 @@
     </row>
     <row r="40" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>171</v>
+        <v>423</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>13</v>
@@ -2898,19 +2945,19 @@
     </row>
     <row r="41" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>172</v>
+        <v>424</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
@@ -2919,19 +2966,19 @@
     </row>
     <row r="42" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>175</v>
+        <v>425</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>13</v>
@@ -2940,19 +2987,19 @@
     </row>
     <row r="43" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>426</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>13</v>
@@ -2961,18 +3008,18 @@
     </row>
     <row r="44" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>178</v>
+        <v>427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -2982,18 +3029,18 @@
     </row>
     <row r="45" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>179</v>
+        <v>428</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -3003,7 +3050,7 @@
     </row>
     <row r="46" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -3016,16 +3063,16 @@
     </row>
     <row r="47" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
@@ -3035,24 +3082,24 @@
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="3" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>17</v>
@@ -3064,16 +3111,16 @@
     </row>
     <row r="49" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -3085,16 +3132,16 @@
     </row>
     <row r="50" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>21</v>
@@ -3106,16 +3153,16 @@
     </row>
     <row r="51" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
@@ -3127,16 +3174,16 @@
     </row>
     <row r="52" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
@@ -3148,16 +3195,16 @@
     </row>
     <row r="53" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
@@ -3169,16 +3216,16 @@
     </row>
     <row r="54" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -3190,16 +3237,16 @@
     </row>
     <row r="55" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
@@ -3211,16 +3258,16 @@
     </row>
     <row r="56" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -3232,7 +3279,7 @@
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3245,16 +3292,16 @@
     </row>
     <row r="58" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
@@ -3264,24 +3311,24 @@
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="3" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>17</v>
@@ -3293,16 +3340,16 @@
     </row>
     <row r="60" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
@@ -3314,16 +3361,16 @@
     </row>
     <row r="61" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>21</v>
@@ -3335,16 +3382,16 @@
     </row>
     <row r="62" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
@@ -3356,16 +3403,16 @@
     </row>
     <row r="63" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -3377,16 +3424,16 @@
     </row>
     <row r="64" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
@@ -3398,16 +3445,16 @@
     </row>
     <row r="65" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -3419,16 +3466,16 @@
     </row>
     <row r="66" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
@@ -3440,16 +3487,16 @@
     </row>
     <row r="67" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
@@ -3461,7 +3508,7 @@
     </row>
     <row r="68" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3474,13 +3521,13 @@
     </row>
     <row r="69" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>210</v>
@@ -3492,16 +3539,22 @@
         <v>13</v>
       </c>
       <c r="G69" s="2"/>
+      <c r="H69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>212</v>
@@ -3516,13 +3569,13 @@
     </row>
     <row r="71" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>214</v>
@@ -3537,13 +3590,13 @@
     </row>
     <row r="72" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>218</v>
@@ -3558,13 +3611,13 @@
     </row>
     <row r="73" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>220</v>
@@ -3579,13 +3632,13 @@
     </row>
     <row r="74" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>222</v>
@@ -3600,13 +3653,13 @@
     </row>
     <row r="75" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>224</v>
@@ -3621,13 +3674,13 @@
     </row>
     <row r="76" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>226</v>
@@ -3642,13 +3695,13 @@
     </row>
     <row r="77" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>228</v>
@@ -3663,13 +3716,13 @@
     </row>
     <row r="78" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>230</v>
@@ -3684,7 +3737,7 @@
     </row>
     <row r="79" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3697,44 +3750,39 @@
     </row>
     <row r="80" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B80" t="s">
-        <v>489</v>
-      </c>
-      <c r="C80" t="s">
-        <v>243</v>
+        <v>459</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B81" t="s">
-        <v>489</v>
+        <v>460</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E81" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -3742,104 +3790,104 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B82" t="s">
-        <v>489</v>
+        <v>461</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E82" t="s">
-        <v>12</v>
+        <v>214</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B83" t="s">
-        <v>489</v>
+        <v>462</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E83" t="s">
-        <v>24</v>
+        <v>218</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B84" t="s">
-        <v>489</v>
+        <v>463</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E84" t="s">
-        <v>21</v>
+        <v>220</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="B85" t="s">
-        <v>489</v>
+        <v>464</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E85" t="s">
-        <v>19</v>
+        <v>222</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B86" t="s">
-        <v>489</v>
+        <v>465</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -3847,20 +3895,20 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B87" t="s">
-        <v>489</v>
+        <v>466</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" t="s">
+        <v>226</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -3868,41 +3916,41 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B88" t="s">
-        <v>489</v>
+        <v>467</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E88" t="s">
-        <v>17</v>
+        <v>228</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B89" t="s">
-        <v>489</v>
+        <v>468</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E89" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -3910,28 +3958,1908 @@
       </c>
       <c r="G89" s="2"/>
     </row>
+    <row r="90" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="45"/>
+    </row>
+    <row r="91" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B91" t="s">
+        <v>489</v>
+      </c>
+      <c r="C91" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B92" t="s">
+        <v>489</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B93" t="s">
+        <v>489</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B94" t="s">
+        <v>489</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B95" t="s">
+        <v>489</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B96" t="s">
+        <v>489</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B97" t="s">
+        <v>489</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B98" t="s">
+        <v>489</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B99" t="s">
+        <v>489</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B100" t="s">
+        <v>489</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I89" xr:uid="{A7299888-D71A-4D30-9D4D-D78DA174837B}"/>
+  <autoFilter ref="A1:I100" xr:uid="{A7299888-D71A-4D30-9D4D-D78DA174837B}"/>
   <mergeCells count="7">
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A46:I46"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A57:I57"/>
     <mergeCell ref="A79:I79"/>
-    <mergeCell ref="A46:I46"/>
     <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A57:I57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="15.08984375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.54296875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.81640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.08984375" customWidth="1" collapsed="1"/>
+    <col min="16" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D79F735-DD97-416B-B04A-A8B3BF03F3F1}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Admin@123" xr:uid="{FDDD0EE2-7999-4245-8E7D-D928FF2B0B5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5494,7 +7422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
@@ -6757,7 +8685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
@@ -8136,7 +10064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8583,7 +10511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8932,7 +10860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9426,7 +11354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9998,1446 +11926,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.08984375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.54296875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.81640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.08984375" customWidth="1" collapsed="1"/>
-    <col min="16" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>
--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schakil\git\OrangeHRMAutomation\test-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesh\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D801DA20-0070-400B-82A8-76E462AC7B8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C3B68-ECA2-4F08-A0EF-354D09134ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="507">
   <si>
     <t>S. No</t>
   </si>
@@ -1543,17 +1543,23 @@
     <t>Orange HRM Application Login and Logout</t>
   </si>
   <si>
-    <t>alice</t>
-  </si>
-  <si>
-    <t>Test123</t>
+    <t>New User Name</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>liza123</t>
+  </si>
+  <si>
+    <t>nHppVDh3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1577,6 +1583,10 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1732,10 +1742,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1827,11 +1838,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2129,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -2154,7 +2172,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,17 +2591,17 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2806,17 +2824,17 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -3049,17 +3067,17 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="47"/>
     </row>
     <row r="47" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
@@ -3278,17 +3296,17 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="45"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
     </row>
     <row r="58" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
@@ -3507,17 +3525,17 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="45"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
     </row>
     <row r="69" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
@@ -3736,17 +3754,17 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="45"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="47"/>
     </row>
     <row r="80" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -3959,17 +3977,17 @@
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="45"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="47"/>
     </row>
     <row r="91" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
@@ -5646,10 +5664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D79F735-DD97-416B-B04A-A8B3BF03F3F1}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5657,9 +5675,11 @@
     <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
     <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -5669,14 +5689,20 @@
       <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="43" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -5687,13 +5713,19 @@
         <v>492</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -5706,11 +5738,13 @@
       <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -5723,11 +5757,13 @@
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -5740,11 +5776,13 @@
       <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -5757,11 +5795,13 @@
       <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -5774,11 +5814,13 @@
       <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -5791,11 +5833,13 @@
       <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -5808,11 +5852,13 @@
       <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -5825,11 +5871,13 @@
       <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -5842,13 +5890,17 @@
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="44" t="s">
         <v>31</v>
       </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Admin@123" xr:uid="{FDDD0EE2-7999-4245-8E7D-D928FF2B0B5B}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{7BD59133-5984-4A1A-A9F3-B7E14A6C8529}"/>
+    <hyperlink ref="E3:E11" r:id="rId2" display="Admin@123" xr:uid="{E7F63DB0-782E-41D5-89BD-08F576A6326F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesh\git\OrangeHRMAutomation\test-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schakil\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C3B68-ECA2-4F08-A0EF-354D09134ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D27CE4-C2BD-4FA2-9672-024A87F467D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="507">
   <si>
     <t>S. No</t>
   </si>
@@ -1483,9 +1483,6 @@
     <t>TC_01_AddEmployee</t>
   </si>
   <si>
-    <t>TC_02_EditUser</t>
-  </si>
-  <si>
     <t>TC_03_AddVacancy</t>
   </si>
   <si>
@@ -1553,6 +1550,9 @@
   </si>
   <si>
     <t>nHppVDh3</t>
+  </si>
+  <si>
+    <t>TC_02_EditLocation</t>
   </si>
 </sst>
 </file>
@@ -2068,8 +2068,8 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2132,13 +2132,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>492</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -2147,22 +2147,24 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -2172,7 +2174,10 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>133</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2180,13 +2185,13 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -2196,7 +2201,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>133</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,13 +2212,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -2219,19 +2227,25 @@
         <v>13</v>
       </c>
       <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -2240,19 +2254,25 @@
         <v>13</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -2261,19 +2281,25 @@
         <v>13</v>
       </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -2282,19 +2308,25 @@
         <v>13</v>
       </c>
       <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -2303,19 +2335,25 @@
         <v>13</v>
       </c>
       <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -2324,19 +2362,25 @@
         <v>13</v>
       </c>
       <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -2345,6 +2389,12 @@
         <v>13</v>
       </c>
       <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
@@ -2524,7 +2574,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2608,7 +2658,7 @@
         <v>409</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
@@ -2637,7 +2687,7 @@
         <v>410</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -2658,7 +2708,7 @@
         <v>411</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>37</v>
@@ -2679,7 +2729,7 @@
         <v>412</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
@@ -2700,7 +2750,7 @@
         <v>413</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>42</v>
@@ -2723,7 +2773,7 @@
         <v>414</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>44</v>
@@ -2744,7 +2794,7 @@
         <v>415</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>46</v>
@@ -2765,7 +2815,7 @@
         <v>416</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
@@ -2786,7 +2836,7 @@
         <v>417</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>52</v>
@@ -2807,7 +2857,7 @@
         <v>418</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>55</v>
@@ -2841,7 +2891,7 @@
         <v>419</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>142</v>
@@ -2868,7 +2918,7 @@
         <v>420</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>145</v>
@@ -2895,7 +2945,7 @@
         <v>421</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>146</v>
@@ -2924,7 +2974,7 @@
         <v>422</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>147</v>
@@ -2945,7 +2995,7 @@
         <v>423</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>148</v>
@@ -2966,7 +3016,7 @@
         <v>424</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>149</v>
@@ -2987,7 +3037,7 @@
         <v>425</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>151</v>
@@ -3008,7 +3058,7 @@
         <v>426</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>154</v>
@@ -3029,7 +3079,7 @@
         <v>427</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>157</v>
@@ -3050,7 +3100,7 @@
         <v>428</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>158</v>
@@ -3084,7 +3134,7 @@
         <v>429</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>163</v>
@@ -3111,7 +3161,7 @@
         <v>430</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>168</v>
@@ -3132,7 +3182,7 @@
         <v>431</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>169</v>
@@ -3153,7 +3203,7 @@
         <v>432</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>170</v>
@@ -3174,7 +3224,7 @@
         <v>433</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>171</v>
@@ -3195,7 +3245,7 @@
         <v>434</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>172</v>
@@ -3216,7 +3266,7 @@
         <v>435</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>175</v>
@@ -3237,7 +3287,7 @@
         <v>436</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>177</v>
@@ -3258,7 +3308,7 @@
         <v>437</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>178</v>
@@ -3279,7 +3329,7 @@
         <v>438</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>179</v>
@@ -3313,7 +3363,7 @@
         <v>439</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>184</v>
@@ -3340,7 +3390,7 @@
         <v>440</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>189</v>
@@ -3361,7 +3411,7 @@
         <v>441</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>191</v>
@@ -3382,7 +3432,7 @@
         <v>442</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>193</v>
@@ -3403,7 +3453,7 @@
         <v>443</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>195</v>
@@ -3424,7 +3474,7 @@
         <v>444</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>198</v>
@@ -3445,7 +3495,7 @@
         <v>445</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>201</v>
@@ -3466,7 +3516,7 @@
         <v>446</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>202</v>
@@ -3487,7 +3537,7 @@
         <v>447</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>203</v>
@@ -3508,7 +3558,7 @@
         <v>448</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>204</v>
@@ -3542,7 +3592,7 @@
         <v>449</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>209</v>
@@ -3569,7 +3619,7 @@
         <v>450</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>211</v>
@@ -3590,7 +3640,7 @@
         <v>451</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>213</v>
@@ -3611,7 +3661,7 @@
         <v>452</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>217</v>
@@ -3632,7 +3682,7 @@
         <v>453</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>219</v>
@@ -3653,7 +3703,7 @@
         <v>454</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>221</v>
@@ -3674,7 +3724,7 @@
         <v>455</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>223</v>
@@ -3695,7 +3745,7 @@
         <v>456</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>225</v>
@@ -3716,7 +3766,7 @@
         <v>457</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>227</v>
@@ -3737,7 +3787,7 @@
         <v>458</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>229</v>
@@ -3771,7 +3821,7 @@
         <v>459</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>232</v>
@@ -3792,7 +3842,7 @@
         <v>460</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>233</v>
@@ -3813,7 +3863,7 @@
         <v>461</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>234</v>
@@ -3834,7 +3884,7 @@
         <v>462</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>235</v>
@@ -3855,7 +3905,7 @@
         <v>463</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>236</v>
@@ -3876,7 +3926,7 @@
         <v>464</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>237</v>
@@ -3897,7 +3947,7 @@
         <v>465</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>238</v>
@@ -3918,7 +3968,7 @@
         <v>466</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>239</v>
@@ -3939,7 +3989,7 @@
         <v>467</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>240</v>
@@ -3960,7 +4010,7 @@
         <v>468</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>241</v>
@@ -3994,7 +4044,7 @@
         <v>469</v>
       </c>
       <c r="B91" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C91" t="s">
         <v>243</v>
@@ -4020,7 +4070,7 @@
         <v>470</v>
       </c>
       <c r="B92" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>245</v>
@@ -4041,7 +4091,7 @@
         <v>471</v>
       </c>
       <c r="B93" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>246</v>
@@ -4062,7 +4112,7 @@
         <v>472</v>
       </c>
       <c r="B94" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>247</v>
@@ -4083,7 +4133,7 @@
         <v>473</v>
       </c>
       <c r="B95" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>248</v>
@@ -4104,7 +4154,7 @@
         <v>474</v>
       </c>
       <c r="B96" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>249</v>
@@ -4125,7 +4175,7 @@
         <v>475</v>
       </c>
       <c r="B97" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>250</v>
@@ -4146,7 +4196,7 @@
         <v>476</v>
       </c>
       <c r="B98" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>251</v>
@@ -4167,7 +4217,7 @@
         <v>477</v>
       </c>
       <c r="B99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>252</v>
@@ -4188,7 +4238,7 @@
         <v>478</v>
       </c>
       <c r="B100" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>253</v>
@@ -4299,7 +4349,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>243</v>
@@ -4336,7 +4386,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>245</v>
@@ -4373,7 +4423,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>246</v>
@@ -4410,7 +4460,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>247</v>
@@ -4447,7 +4497,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>248</v>
@@ -4484,7 +4534,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>249</v>
@@ -4521,7 +4571,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>250</v>
@@ -4558,7 +4608,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>251</v>
@@ -4595,7 +4645,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>252</v>
@@ -4632,7 +4682,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>253</v>
@@ -5666,7 +5716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D79F735-DD97-416B-B04A-A8B3BF03F3F1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -5696,10 +5746,10 @@
         <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5707,10 +5757,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>30</v>
@@ -5719,10 +5769,10 @@
         <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5730,10 +5780,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>30</v>
@@ -5749,10 +5799,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
@@ -5768,10 +5818,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>30</v>
@@ -5787,10 +5837,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -5806,10 +5856,10 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>30</v>
@@ -5825,10 +5875,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -5844,10 +5894,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
@@ -5863,10 +5913,10 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
@@ -5882,10 +5932,10 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
@@ -7479,7 +7529,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7531,7 +7581,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>29</v>
@@ -7555,7 +7605,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>35</v>
@@ -7576,7 +7626,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>37</v>
@@ -7597,7 +7647,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>39</v>
@@ -7618,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>42</v>
@@ -7639,7 +7689,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>44</v>
@@ -7660,7 +7710,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>46</v>
@@ -7681,7 +7731,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>49</v>
@@ -7702,7 +7752,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>52</v>
@@ -7723,7 +7773,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>55</v>
@@ -8802,7 +8852,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>142</v>
@@ -8834,7 +8884,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>145</v>
@@ -8866,7 +8916,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>146</v>
@@ -8899,7 +8949,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>147</v>
@@ -8931,7 +8981,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>148</v>
@@ -8963,7 +9013,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>149</v>
@@ -8995,7 +9045,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>151</v>
@@ -9027,7 +9077,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>154</v>
@@ -9059,7 +9109,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>157</v>
@@ -9091,7 +9141,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>158</v>
@@ -10182,7 +10232,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>163</v>
@@ -10217,7 +10267,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>168</v>
@@ -10252,7 +10302,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
@@ -10287,7 +10337,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>170</v>
@@ -10322,7 +10372,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>171</v>
@@ -10357,7 +10407,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>172</v>
@@ -10392,7 +10442,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>175</v>
@@ -10427,7 +10477,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>177</v>
@@ -10462,7 +10512,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>178</v>
@@ -10497,7 +10547,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>179</v>
@@ -10621,7 +10671,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>184</v>
@@ -10650,7 +10700,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>189</v>
@@ -10679,7 +10729,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>191</v>
@@ -10708,7 +10758,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>193</v>
@@ -10737,7 +10787,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>195</v>
@@ -10766,7 +10816,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>198</v>
@@ -10795,7 +10845,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>201</v>
@@ -10824,7 +10874,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>202</v>
@@ -10853,7 +10903,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>203</v>
@@ -10882,7 +10932,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>204</v>
@@ -10983,7 +11033,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>209</v>
@@ -11027,7 +11077,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>211</v>
@@ -11069,7 +11119,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>213</v>
@@ -11111,7 +11161,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>217</v>
@@ -11153,7 +11203,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>219</v>
@@ -11195,7 +11245,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>221</v>
@@ -11237,7 +11287,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>223</v>
@@ -11279,7 +11329,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>225</v>
@@ -11321,7 +11371,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>227</v>
@@ -11363,7 +11413,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>229</v>
@@ -11493,7 +11543,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>232</v>
@@ -11545,7 +11595,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>233</v>
@@ -11595,7 +11645,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>234</v>
@@ -11643,7 +11693,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>235</v>
@@ -11691,7 +11741,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>236</v>
@@ -11739,7 +11789,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>237</v>
@@ -11787,7 +11837,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>238</v>
@@ -11835,7 +11885,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>239</v>
@@ -11883,7 +11933,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>240</v>
@@ -11931,7 +11981,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>241</v>

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesh\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C3B68-ECA2-4F08-A0EF-354D09134ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86CE5A5-E60B-4516-9562-56DD2C194F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="535">
   <si>
     <t>S. No</t>
   </si>
@@ -1543,22 +1543,107 @@
     <t>Orange HRM Application Login and Logout</t>
   </si>
   <si>
-    <t>New User Name</t>
-  </si>
-  <si>
-    <t>New Password</t>
+    <t>PRUSwNjw</t>
+  </si>
+  <si>
+    <t>emily.harris</t>
+  </si>
+  <si>
+    <t>tybWaSiM</t>
+  </si>
+  <si>
+    <t>george.tofari</t>
+  </si>
+  <si>
+    <t>GEAIYDdC</t>
+  </si>
+  <si>
+    <t>jendayi.jumoke</t>
+  </si>
+  <si>
+    <t>42Gmt7CO</t>
+  </si>
+  <si>
+    <t>gkFGZuVn</t>
+  </si>
+  <si>
+    <t>chenzira.chuki</t>
+  </si>
+  <si>
+    <t>6TKk6ozB</t>
+  </si>
+  <si>
+    <t>jacqueline.white</t>
+  </si>
+  <si>
+    <t>zfBsbNyE</t>
   </si>
   <si>
     <t>liza123</t>
   </si>
   <si>
-    <t>nHppVDh3</t>
+    <t>Z2SeK3UX</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>RJjG4VWQ</t>
+  </si>
+  <si>
+    <t>khloe.jayden</t>
+  </si>
+  <si>
+    <t>Zu7oqFiq</t>
+  </si>
+  <si>
+    <t>Kx9C1MjG</t>
+  </si>
+  <si>
+    <t>johns</t>
+  </si>
+  <si>
+    <t>97WTid1I</t>
+  </si>
+  <si>
+    <t>kiyara.hu</t>
+  </si>
+  <si>
+    <t>59XQ7iOI</t>
+  </si>
+  <si>
+    <t>fisher</t>
+  </si>
+  <si>
+    <t>ZWWFSXab</t>
+  </si>
+  <si>
+    <t>4xdFk8Ti</t>
+  </si>
+  <si>
+    <t>uDYj1ZpW</t>
+  </si>
+  <si>
+    <t>jadine.jackie</t>
+  </si>
+  <si>
+    <t>4pO4pF9V</t>
+  </si>
+  <si>
+    <t>loiuse.anderson</t>
+  </si>
+  <si>
+    <t>BtfMqDJm</t>
+  </si>
+  <si>
+    <t>fiona.grace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1590,7 +1675,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1661,6 +1746,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1746,7 +1837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1847,6 +1938,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2074,15 +2174,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.90625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="65.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.90625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="65.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="19" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4222,7 +4322,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -4230,21 +4330,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.08984375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.54296875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.81640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.08984375" customWidth="1" collapsed="1"/>
-    <col min="16" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="16" max="26" customWidth="true" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5667,16 +5767,16 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5695,12 +5795,8 @@
       <c r="E1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>504</v>
-      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5713,17 +5809,13 @@
         <v>492</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>519</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>506</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -5736,10 +5828,10 @@
         <v>493</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>515</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>31</v>
+        <v>520</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="10"/>
@@ -5755,10 +5847,10 @@
         <v>494</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>522</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>31</v>
+        <v>521</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="10"/>
@@ -5774,10 +5866,10 @@
         <v>495</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>524</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>31</v>
+        <v>523</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="10"/>
@@ -5793,10 +5885,10 @@
         <v>496</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>526</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>31</v>
+        <v>525</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="10"/>
@@ -5812,10 +5904,10 @@
         <v>497</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>508</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>31</v>
+        <v>527</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="10"/>
@@ -5831,10 +5923,10 @@
         <v>498</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>506</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>31</v>
+        <v>528</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="10"/>
@@ -5850,10 +5942,10 @@
         <v>499</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>530</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>31</v>
+        <v>529</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="10"/>
@@ -5869,10 +5961,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>532</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>31</v>
+        <v>531</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="10"/>
@@ -5888,10 +5980,10 @@
         <v>501</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>534</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>31</v>
+        <v>533</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="10"/>
@@ -5908,7 +6000,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -5916,21 +6008,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.54296875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.54296875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.453125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.54296875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="18" max="26" customWidth="true" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7484,17 +7576,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.26953125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7265625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.453125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.453125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="26" width="8.7265625" style="4" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="14.453125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="19.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="9.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="25.453125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="19.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="16.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="18.1796875" collapsed="true"/>
+    <col min="10" max="26" customWidth="true" style="4" width="8.7265625" collapsed="true"/>
+    <col min="27" max="16384" style="4" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8747,19 +8839,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.54296875" style="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.26953125" style="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.453125" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.54296875" style="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.453125" style="29" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="26" width="8.7265625" style="29" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="14.453125" style="29" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="29" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="29" width="22.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="29" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="29" width="9.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="29" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="13.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="29" width="21.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="29" width="25.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="29" width="14.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="29" width="21.453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="29" width="12.08984375" collapsed="true"/>
+    <col min="12" max="26" customWidth="true" style="29" width="8.7265625" collapsed="true"/>
+    <col min="27" max="16384" style="29" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -10129,17 +10221,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10576,15 +10668,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.81640625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.90625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.26953125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14.453125" style="29" collapsed="1"/>
-    <col min="9" max="9" width="15.7265625" style="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="14.453125" style="29" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="29" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="29" width="21.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="29" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="29" width="8.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="29" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="29" width="19.26953125" collapsed="true"/>
+    <col min="7" max="8" style="29" width="14.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="29" width="15.7265625" collapsed="true"/>
+    <col min="10" max="16384" style="29" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10925,13 +11017,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11419,17 +11511,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.08984375" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="14.453125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.7265625" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="14.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.08984375" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="29.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesh\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F34AECB-DD78-4C37-9EDA-2A734E4A9213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4B725-21EA-441C-9B41-FA0DAB592FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="507">
   <si>
     <t>S. No</t>
   </si>
@@ -1541,12 +1541,25 @@
   </si>
   <si>
     <t>TC_02_EditLocation</t>
+  </si>
+  <si>
+    <t>AustraliaLumivX</t>
+  </si>
+  <si>
+    <t>Actual value is not matched with Expected value :OrangeHRM</t>
+  </si>
+  <si>
+    <t>John Adam fnsf</t>
+  </si>
+  <si>
+    <t>1002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1841,9 +1854,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1857,6 +1867,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2084,15 +2097,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.90625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="65.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.90625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="65.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="19" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,7 +2455,7 @@
         <v>133</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>134</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,17 +2664,17 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2884,17 +2897,17 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
     </row>
     <row r="36" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -3127,17 +3140,17 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="46"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
@@ -3356,17 +3369,17 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="46"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="51"/>
     </row>
     <row r="58" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
@@ -3585,17 +3598,17 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="46"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="51"/>
     </row>
     <row r="69" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
@@ -3814,17 +3827,17 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="46"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="51"/>
     </row>
     <row r="80" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -4037,17 +4050,17 @@
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="46"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="51"/>
     </row>
     <row r="91" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
@@ -4282,7 +4295,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -4290,21 +4303,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.08984375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.54296875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.81640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.08984375" customWidth="1" collapsed="1"/>
-    <col min="16" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="16" max="26" customWidth="true" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5732,11 +5745,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5749,14 +5762,14 @@
       <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5770,8 +5783,8 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -5916,29 +5929,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.54296875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.54296875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.453125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.54296875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="18" max="26" customWidth="true" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,8 +6032,8 @@
       <c r="H2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>50</v>
+      <c r="I2" s="29" t="s">
+        <v>503</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>70</v>
@@ -6040,8 +6053,12 @@
       <c r="O2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7492,17 +7509,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.26953125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7265625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.453125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.453125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="26" width="8.7265625" style="4" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="14.453125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="19.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="9.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="25.453125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="19.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="16.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="18.1796875" collapsed="true"/>
+    <col min="10" max="26" customWidth="true" style="4" width="8.7265625" collapsed="true"/>
+    <col min="27" max="16384" style="4" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8749,25 +8766,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.54296875" style="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.26953125" style="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.453125" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.54296875" style="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.453125" style="29" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="26" width="8.7265625" style="29" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="14.453125" style="29" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="29" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="29" width="22.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="29" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="29" width="9.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="29" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="13.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="29" width="21.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="29" width="25.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="29" width="14.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="29" width="21.453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="29" width="12.08984375" collapsed="true"/>
+    <col min="12" max="26" customWidth="true" style="29" width="8.7265625" collapsed="true"/>
+    <col min="27" max="16384" style="29" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8821,11 +8838,12 @@
       <c r="E2" s="30" t="s">
         <v>31</v>
       </c>
+      <c r="F2"/>
       <c r="G2" s="29" t="s">
         <v>150</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>69</v>
+        <v>503</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>152</v>
@@ -8833,8 +8851,8 @@
       <c r="J2" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="29">
-        <v>4</v>
+      <c r="K2" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8865,8 +8883,8 @@
       <c r="J3" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="29">
-        <v>5</v>
+      <c r="K3" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8898,8 +8916,8 @@
       <c r="J4" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="29">
-        <v>2</v>
+      <c r="K4" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8930,8 +8948,8 @@
       <c r="J5" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="29">
-        <v>2</v>
+      <c r="K5" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8962,8 +8980,8 @@
       <c r="J6" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="K6" s="29">
-        <v>1</v>
+      <c r="K6" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8994,8 +9012,8 @@
       <c r="J7" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="K7" s="29">
-        <v>3</v>
+      <c r="K7" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -9026,8 +9044,8 @@
       <c r="J8" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="29">
-        <v>2</v>
+      <c r="K8" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -9058,8 +9076,8 @@
       <c r="J9" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="29">
-        <v>5</v>
+      <c r="K9" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -9090,8 +9108,8 @@
       <c r="J10" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="29">
-        <v>3</v>
+      <c r="K10" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -9122,8 +9140,8 @@
       <c r="J11" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="K11" s="29">
-        <v>2</v>
+      <c r="K11" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10137,17 +10155,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10184,10 +10202,10 @@
       <c r="K1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="47" t="s">
         <v>479</v>
       </c>
     </row>
@@ -10590,15 +10608,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.81640625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.90625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.26953125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14.453125" style="29" collapsed="1"/>
-    <col min="9" max="9" width="15.7265625" style="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="14.453125" style="29" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="29" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="29" width="21.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="29" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="29" width="8.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="29" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="29" width="19.26953125" collapsed="true"/>
+    <col min="7" max="8" style="29" width="14.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="29" width="15.7265625" collapsed="true"/>
+    <col min="10" max="16384" style="29" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10933,19 +10951,19 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11433,17 +11451,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.08984375" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="14.453125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.7265625" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="14.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.08984375" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="29.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" width="14.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesh\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4B725-21EA-441C-9B41-FA0DAB592FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B6A126-8473-48D8-9896-598C3E1D29A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="509">
   <si>
     <t>S. No</t>
   </si>
@@ -1549,10 +1549,16 @@
     <t>Actual value is not matched with Expected value :OrangeHRM</t>
   </si>
   <si>
-    <t>John Adam fnsf</t>
-  </si>
-  <si>
     <t>1002</t>
+  </si>
+  <si>
+    <t>John Adam Nilf</t>
+  </si>
+  <si>
+    <t>CanadaUNGhNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Ticket </t>
   </si>
 </sst>
 </file>
@@ -2699,11 +2705,9 @@
         <v>408</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -4084,9 +4088,7 @@
       <c r="H91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
@@ -4297,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4395,7 @@
         <v>269</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>390</v>
+        <v>508</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>391</v>
@@ -5931,7 +5933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -6033,7 +6035,7 @@
         <v>68</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>70</v>
@@ -6054,10 +6056,10 @@
         <v>75</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="514">
   <si>
     <t>S. No</t>
   </si>
@@ -1559,6 +1559,21 @@
   </si>
   <si>
     <t xml:space="preserve">Air Ticket </t>
+  </si>
+  <si>
+    <t>South AfricaDjWOXw</t>
+  </si>
+  <si>
+    <t>John geYJ Williams</t>
+  </si>
+  <si>
+    <t>6906137415</t>
+  </si>
+  <si>
+    <t>John Adam gXUc</t>
+  </si>
+  <si>
+    <t>FrancesbhHja</t>
   </si>
 </sst>
 </file>
@@ -2705,9 +2720,11 @@
         <v>408</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -2934,11 +2951,9 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -6035,7 +6050,7 @@
         <v>68</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>70</v>
@@ -6056,7 +6071,7 @@
         <v>75</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>505</v>
@@ -6480,7 +6495,7 @@
         <v>129</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>130</v>
+        <v>509</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>79</v>
@@ -7569,12 +7584,18 @@
       <c r="E2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="G2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+        <v>509</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>510</v>
+      </c>
       <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="515">
   <si>
     <t>S. No</t>
   </si>
@@ -1574,6 +1574,9 @@
   </si>
   <si>
     <t>FrancesbhHja</t>
+  </si>
+  <si>
+    <t>John Adam iBtG</t>
   </si>
 </sst>
 </file>
@@ -6050,7 +6053,7 @@
         <v>68</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>70</v>
@@ -6071,7 +6074,7 @@
         <v>75</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>505</v>

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="517">
   <si>
     <t>S. No</t>
   </si>
@@ -1577,6 +1577,12 @@
   </si>
   <si>
     <t>John Adam iBtG</t>
+  </si>
+  <si>
+    <t>Amadi Aswad</t>
+  </si>
+  <si>
+    <t>0073</t>
   </si>
 </sst>
 </file>
@@ -10269,6 +10275,12 @@
       <c r="K2" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="L2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M2" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesh\git\OrangeHRMAutomation\test-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schakil\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B6A126-8473-48D8-9896-598C3E1D29A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF07BC5-5FAB-4B42-BA9D-C4278ECA0A08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="515">
   <si>
     <t>S. No</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Chinese Development Center</t>
   </si>
   <si>
-    <t>United KingdomxvAguU</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -1549,15 +1546,6 @@
     <t>Actual value is not matched with Expected value :OrangeHRM</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>John Adam Nilf</t>
-  </si>
-  <si>
-    <t>CanadaUNGhNB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Air Ticket </t>
   </si>
   <si>
@@ -1570,19 +1558,25 @@
     <t>6906137415</t>
   </si>
   <si>
-    <t>John Adam gXUc</t>
+    <t>Amadi Aswad</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>John Adam FIQl</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>GermanyWMEvnx</t>
+  </si>
+  <si>
+    <t>John Adam oReG</t>
   </si>
   <si>
     <t>FrancesbhHja</t>
-  </si>
-  <si>
-    <t>John Adam iBtG</t>
-  </si>
-  <si>
-    <t>Amadi Aswad</t>
-  </si>
-  <si>
-    <t>0073</t>
   </si>
 </sst>
 </file>
@@ -2121,8 +2115,8 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2158,7 +2152,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>7</v>
@@ -2185,13 +2179,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>491</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -2199,25 +2193,28 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G3" t="s">
+        <v>407</v>
+      </c>
       <c r="H3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -2225,26 +2222,28 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" t="s">
         <v>133</v>
-      </c>
-      <c r="I4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -2254,24 +2253,24 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
         <v>133</v>
-      </c>
-      <c r="I5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -2281,24 +2280,24 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
         <v>133</v>
-      </c>
-      <c r="I6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -2308,24 +2307,24 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
         <v>133</v>
-      </c>
-      <c r="I7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -2335,24 +2334,24 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -2362,24 +2361,24 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
         <v>133</v>
-      </c>
-      <c r="I9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -2389,24 +2388,24 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
         <v>133</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -2416,24 +2415,24 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
         <v>133</v>
-      </c>
-      <c r="I11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -2443,10 +2442,10 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
         <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2467,7 +2466,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -2482,18 +2481,18 @@
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2508,21 +2507,21 @@
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -2546,10 +2545,10 @@
     </row>
     <row r="17" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -2567,10 +2566,10 @@
     </row>
     <row r="18" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2588,10 +2587,10 @@
     </row>
     <row r="19" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -2609,13 +2608,13 @@
     </row>
     <row r="20" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -2627,18 +2626,18 @@
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -2653,13 +2652,13 @@
     </row>
     <row r="22" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -2674,13 +2673,13 @@
     </row>
     <row r="23" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -2695,7 +2694,7 @@
     </row>
     <row r="24" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -2708,16 +2707,16 @@
     </row>
     <row r="25" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
@@ -2726,27 +2725,27 @@
         <v>13</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
@@ -2758,16 +2757,16 @@
     </row>
     <row r="27" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -2779,16 +2778,16 @@
     </row>
     <row r="28" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -2800,16 +2799,16 @@
     </row>
     <row r="29" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
@@ -2818,21 +2817,21 @@
         <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -2844,16 +2843,16 @@
     </row>
     <row r="31" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -2865,16 +2864,16 @@
     </row>
     <row r="32" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
@@ -2886,16 +2885,16 @@
     </row>
     <row r="33" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -2907,16 +2906,16 @@
     </row>
     <row r="34" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
@@ -2928,7 +2927,7 @@
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
@@ -2941,16 +2940,16 @@
     </row>
     <row r="36" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
@@ -2966,16 +2965,16 @@
     </row>
     <row r="37" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
@@ -2985,24 +2984,24 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -3011,27 +3010,27 @@
         <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="H38" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" t="s">
         <v>133</v>
-      </c>
-      <c r="I38" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>24</v>
@@ -3043,16 +3042,16 @@
     </row>
     <row r="40" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
@@ -3064,16 +3063,16 @@
     </row>
     <row r="41" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>12</v>
@@ -3085,16 +3084,16 @@
     </row>
     <row r="42" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>19</v>
@@ -3106,16 +3105,16 @@
     </row>
     <row r="43" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
@@ -3127,16 +3126,16 @@
     </row>
     <row r="44" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>12</v>
@@ -3148,16 +3147,16 @@
     </row>
     <row r="45" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>12</v>
@@ -3169,7 +3168,7 @@
     </row>
     <row r="46" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
@@ -3182,16 +3181,16 @@
     </row>
     <row r="47" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
@@ -3201,24 +3200,24 @@
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>17</v>
@@ -3230,16 +3229,16 @@
     </row>
     <row r="49" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -3251,16 +3250,16 @@
     </row>
     <row r="50" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>21</v>
@@ -3272,16 +3271,16 @@
     </row>
     <row r="51" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
@@ -3293,16 +3292,16 @@
     </row>
     <row r="52" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>24</v>
@@ -3314,16 +3313,16 @@
     </row>
     <row r="53" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
@@ -3335,16 +3334,16 @@
     </row>
     <row r="54" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -3356,16 +3355,16 @@
     </row>
     <row r="55" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
@@ -3377,16 +3376,16 @@
     </row>
     <row r="56" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -3398,7 +3397,7 @@
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B57" s="50"/>
       <c r="C57" s="50"/>
@@ -3411,16 +3410,16 @@
     </row>
     <row r="58" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
@@ -3433,21 +3432,21 @@
         <v>14</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>17</v>
@@ -3459,16 +3458,16 @@
     </row>
     <row r="60" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
@@ -3480,16 +3479,16 @@
     </row>
     <row r="61" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>21</v>
@@ -3501,16 +3500,16 @@
     </row>
     <row r="62" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
@@ -3522,16 +3521,16 @@
     </row>
     <row r="63" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>24</v>
@@ -3543,16 +3542,16 @@
     </row>
     <row r="64" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
@@ -3564,16 +3563,16 @@
     </row>
     <row r="65" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -3585,16 +3584,16 @@
     </row>
     <row r="66" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
@@ -3606,16 +3605,16 @@
     </row>
     <row r="67" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
@@ -3627,7 +3626,7 @@
     </row>
     <row r="68" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68" s="50"/>
       <c r="C68" s="50"/>
@@ -3640,16 +3639,16 @@
     </row>
     <row r="69" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
@@ -3659,24 +3658,24 @@
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
@@ -3688,16 +3687,16 @@
     </row>
     <row r="71" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
@@ -3709,16 +3708,16 @@
     </row>
     <row r="72" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>21</v>
@@ -3730,16 +3729,16 @@
     </row>
     <row r="73" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
@@ -3751,16 +3750,16 @@
     </row>
     <row r="74" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>24</v>
@@ -3772,16 +3771,16 @@
     </row>
     <row r="75" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
@@ -3793,16 +3792,16 @@
     </row>
     <row r="76" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
@@ -3814,16 +3813,16 @@
     </row>
     <row r="77" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
@@ -3835,16 +3834,16 @@
     </row>
     <row r="78" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
@@ -3856,7 +3855,7 @@
     </row>
     <row r="79" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B79" s="50"/>
       <c r="C79" s="50"/>
@@ -3869,16 +3868,16 @@
     </row>
     <row r="80" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
@@ -3890,16 +3889,16 @@
     </row>
     <row r="81" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>17</v>
@@ -3911,16 +3910,16 @@
     </row>
     <row r="82" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>19</v>
@@ -3932,16 +3931,16 @@
     </row>
     <row r="83" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>21</v>
@@ -3953,16 +3952,16 @@
     </row>
     <row r="84" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>12</v>
@@ -3974,16 +3973,16 @@
     </row>
     <row r="85" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>24</v>
@@ -3995,16 +3994,16 @@
     </row>
     <row r="86" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>12</v>
@@ -4016,16 +4015,16 @@
     </row>
     <row r="87" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>12</v>
@@ -4037,16 +4036,16 @@
     </row>
     <row r="88" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>12</v>
@@ -4058,16 +4057,16 @@
     </row>
     <row r="89" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
@@ -4079,7 +4078,7 @@
     </row>
     <row r="90" spans="1:9" s="23" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B90" s="50"/>
       <c r="C90" s="50"/>
@@ -4092,16 +4091,16 @@
     </row>
     <row r="91" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B91" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -4116,16 +4115,16 @@
     </row>
     <row r="92" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B92" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
@@ -4137,16 +4136,16 @@
     </row>
     <row r="93" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B93" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -4158,16 +4157,16 @@
     </row>
     <row r="94" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B94" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E94" t="s">
         <v>24</v>
@@ -4179,16 +4178,16 @@
     </row>
     <row r="95" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B95" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E95" t="s">
         <v>21</v>
@@ -4200,16 +4199,16 @@
     </row>
     <row r="96" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B96" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
@@ -4221,16 +4220,16 @@
     </row>
     <row r="97" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B97" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -4242,16 +4241,16 @@
     </row>
     <row r="98" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B98" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4263,16 +4262,16 @@
     </row>
     <row r="99" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
@@ -4284,16 +4283,16 @@
     </row>
     <row r="100" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B100" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>12</v>
@@ -4323,7 +4322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -4357,40 +4356,40 @@
         <v>3</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="K1" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>387</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,10 +4397,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>30</v>
@@ -4410,19 +4409,19 @@
         <v>31</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G2" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>269</v>
-      </c>
       <c r="I2" s="29" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
@@ -4432,13 +4431,13 @@
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>30</v>
@@ -4447,19 +4446,19 @@
         <v>31</v>
       </c>
       <c r="F3" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="29" t="s">
+      <c r="J3" s="29" t="s">
         <v>393</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>394</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -4469,13 +4468,13 @@
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>30</v>
@@ -4484,19 +4483,19 @@
         <v>31</v>
       </c>
       <c r="F4" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>396</v>
-      </c>
       <c r="J4" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
@@ -4506,13 +4505,13 @@
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>30</v>
@@ -4521,19 +4520,19 @@
         <v>31</v>
       </c>
       <c r="F5" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>398</v>
-      </c>
       <c r="J5" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -4543,13 +4542,13 @@
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>30</v>
@@ -4558,19 +4557,19 @@
         <v>31</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>400</v>
-      </c>
       <c r="J6" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
@@ -4580,13 +4579,13 @@
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>30</v>
@@ -4595,19 +4594,19 @@
         <v>31</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -4617,13 +4616,13 @@
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>30</v>
@@ -4632,19 +4631,19 @@
         <v>31</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -4654,13 +4653,13 @@
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>30</v>
@@ -4669,19 +4668,19 @@
         <v>31</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G9" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>287</v>
-      </c>
       <c r="I9" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -4691,13 +4690,13 @@
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>30</v>
@@ -4706,19 +4705,19 @@
         <v>31</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -4728,13 +4727,13 @@
     </row>
     <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>30</v>
@@ -4743,19 +4742,19 @@
         <v>31</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G11" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>289</v>
-      </c>
       <c r="I11" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -5802,10 +5801,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="43"/>
@@ -5814,13 +5813,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="43"/>
@@ -5829,13 +5828,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="43"/>
@@ -5844,13 +5843,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="43"/>
@@ -5859,13 +5858,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="43"/>
@@ -5874,13 +5873,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="43"/>
@@ -5889,13 +5888,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="43"/>
@@ -5904,13 +5903,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="43"/>
@@ -5919,13 +5918,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="43"/>
@@ -5934,13 +5933,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="43"/>
@@ -5997,40 +5996,40 @@
         <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="P1" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6038,7 +6037,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -6050,48 +6049,48 @@
         <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="I2" s="29" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -6103,44 +6102,44 @@
         <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -6152,44 +6151,44 @@
         <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -6201,44 +6200,44 @@
         <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -6250,44 +6249,44 @@
         <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="M6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
@@ -6299,47 +6298,47 @@
         <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -6348,47 +6347,47 @@
         <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="M8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
@@ -6397,47 +6396,47 @@
         <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
@@ -6446,47 +6445,47 @@
         <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="M10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
@@ -6495,34 +6494,34 @@
         <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="O11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -7568,13 +7567,13 @@
         <v>27</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>480</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7582,7 +7581,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>29</v>
@@ -7594,28 +7593,28 @@
         <v>31</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>30</v>
@@ -7630,13 +7629,13 @@
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>30</v>
@@ -7651,13 +7650,13 @@
     </row>
     <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>30</v>
@@ -7672,13 +7671,13 @@
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>30</v>
@@ -7693,13 +7692,13 @@
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>30</v>
@@ -7714,13 +7713,13 @@
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>30</v>
@@ -7735,13 +7734,13 @@
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>30</v>
@@ -7756,13 +7755,13 @@
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>30</v>
@@ -7777,13 +7776,13 @@
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>55</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>30</v>
@@ -8830,28 +8829,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>141</v>
-      </c>
       <c r="K1" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8859,10 +8858,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>30</v>
@@ -8872,30 +8871,30 @@
       </c>
       <c r="F2"/>
       <c r="G2" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I2" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>153</v>
-      </c>
       <c r="K2" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>30</v>
@@ -8904,30 +8903,30 @@
         <v>31</v>
       </c>
       <c r="G3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>156</v>
-      </c>
       <c r="K3" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>30</v>
@@ -8937,30 +8936,30 @@
       </c>
       <c r="F4"/>
       <c r="G4" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>162</v>
-      </c>
       <c r="K4" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>30</v>
@@ -8969,30 +8968,30 @@
         <v>31</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>167</v>
-      </c>
       <c r="K5" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>30</v>
@@ -9001,16 +9000,16 @@
         <v>31</v>
       </c>
       <c r="G6" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>174</v>
-      </c>
       <c r="I6" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>28</v>
@@ -9018,13 +9017,13 @@
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>30</v>
@@ -9033,30 +9032,30 @@
         <v>31</v>
       </c>
       <c r="G7" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>181</v>
-      </c>
       <c r="I7" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>30</v>
@@ -9065,30 +9064,30 @@
         <v>31</v>
       </c>
       <c r="G8" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>187</v>
-      </c>
       <c r="I8" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>30</v>
@@ -9097,30 +9096,30 @@
         <v>31</v>
       </c>
       <c r="G9" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>197</v>
-      </c>
       <c r="I9" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>30</v>
@@ -9129,30 +9128,30 @@
         <v>31</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>30</v>
@@ -9161,19 +9160,19 @@
         <v>31</v>
       </c>
       <c r="G11" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>216</v>
-      </c>
       <c r="I11" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10211,34 +10210,34 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>259</v>
-      </c>
       <c r="L1" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10246,10 +10245,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
@@ -10258,39 +10257,39 @@
         <v>31</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>261</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="L2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
@@ -10299,33 +10298,33 @@
         <v>31</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
@@ -10334,33 +10333,33 @@
         <v>31</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -10369,33 +10368,33 @@
         <v>31</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -10404,33 +10403,33 @@
         <v>31</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -10439,33 +10438,33 @@
         <v>31</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -10474,33 +10473,33 @@
         <v>31</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -10509,33 +10508,33 @@
         <v>31</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -10544,33 +10543,33 @@
         <v>31</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
@@ -10579,22 +10578,22 @@
         <v>31</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10607,7 +10606,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -10622,7 +10621,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -10668,22 +10667,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>265</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10691,10 +10690,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>30</v>
@@ -10703,27 +10702,27 @@
         <v>31</v>
       </c>
       <c r="F2" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>269</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>30</v>
@@ -10732,27 +10731,27 @@
         <v>31</v>
       </c>
       <c r="F3" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>271</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>30</v>
@@ -10761,27 +10760,27 @@
         <v>31</v>
       </c>
       <c r="F4" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>275</v>
-      </c>
       <c r="I4" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>30</v>
@@ -10790,27 +10789,27 @@
         <v>31</v>
       </c>
       <c r="F5" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="H5" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>278</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>30</v>
@@ -10819,27 +10818,27 @@
         <v>31</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>281</v>
-      </c>
       <c r="I6" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>30</v>
@@ -10848,27 +10847,27 @@
         <v>31</v>
       </c>
       <c r="F7" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>283</v>
-      </c>
       <c r="H7" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>30</v>
@@ -10877,27 +10876,27 @@
         <v>31</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G8" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>284</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>30</v>
@@ -10906,27 +10905,27 @@
         <v>31</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>287</v>
-      </c>
       <c r="I9" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>30</v>
@@ -10935,27 +10934,27 @@
         <v>31</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>30</v>
@@ -10964,16 +10963,16 @@
         <v>31</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>289</v>
-      </c>
       <c r="I11" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -11015,19 +11014,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -11053,10 +11052,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
@@ -11065,13 +11064,13 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -11094,25 +11093,25 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -11136,13 +11135,13 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
@@ -11151,10 +11150,10 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -11178,13 +11177,13 @@
     </row>
     <row r="5" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -11193,10 +11192,10 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -11220,13 +11219,13 @@
     </row>
     <row r="6" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -11235,10 +11234,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11262,13 +11261,13 @@
     </row>
     <row r="7" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -11277,10 +11276,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11304,13 +11303,13 @@
     </row>
     <row r="8" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -11319,10 +11318,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11346,13 +11345,13 @@
     </row>
     <row r="9" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -11361,10 +11360,10 @@
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11388,13 +11387,13 @@
     </row>
     <row r="10" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -11403,10 +11402,10 @@
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11430,13 +11429,13 @@
     </row>
     <row r="11" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
@@ -11445,10 +11444,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11513,37 +11512,37 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>325</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -11563,10 +11562,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
@@ -11575,25 +11574,25 @@
         <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -11612,13 +11611,13 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
@@ -11627,23 +11626,23 @@
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -11662,13 +11661,13 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
@@ -11677,19 +11676,19 @@
         <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -11710,13 +11709,13 @@
     </row>
     <row r="5" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -11725,19 +11724,19 @@
         <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -11758,13 +11757,13 @@
     </row>
     <row r="6" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -11773,19 +11772,19 @@
         <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -11806,13 +11805,13 @@
     </row>
     <row r="7" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -11821,19 +11820,19 @@
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -11854,13 +11853,13 @@
     </row>
     <row r="8" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -11869,19 +11868,19 @@
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -11902,13 +11901,13 @@
     </row>
     <row r="9" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -11917,19 +11916,19 @@
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -11950,13 +11949,13 @@
     </row>
     <row r="10" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -11965,19 +11964,19 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>376</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -11998,13 +11997,13 @@
     </row>
     <row r="11" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
@@ -12013,19 +12012,19 @@
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schakil\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF07BC5-5FAB-4B42-BA9D-C4278ECA0A08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D175612F-4C70-42AA-8897-9F96FC36197A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="514">
   <si>
     <t>S. No</t>
   </si>
@@ -1564,26 +1564,22 @@
     <t>0073</t>
   </si>
   <si>
-    <t>John Adam FIQl</t>
-  </si>
-  <si>
-    <t>0062</t>
-  </si>
-  <si>
-    <t>GermanyWMEvnx</t>
-  </si>
-  <si>
-    <t>John Adam oReG</t>
-  </si>
-  <si>
-    <t>FrancesbhHja</t>
+    <t>OrangeHRM is not matched with OrangeHRM</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>John Adam smZh</t>
+  </si>
+  <si>
+    <t>ChromeHeadless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2115,21 +2111,21 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.90625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="65.6328125" collapsed="true"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.90625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="65.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="19" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,8 +2189,8 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>407</v>
+      <c r="G3" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>132</v>
@@ -2223,7 +2219,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="H4" t="s">
         <v>132</v>
@@ -2475,16 +2471,19 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>513</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G14" t="s">
+        <v>407</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2957,7 +2956,9 @@
       <c r="F36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="H36" s="3" t="s">
         <v>14</v>
       </c>
@@ -3193,17 +3194,19 @@
         <v>163</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>12</v>
+        <v>513</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="H47" s="3" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>133</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4108,6 +4111,7 @@
       <c r="F91" t="s">
         <v>13</v>
       </c>
+      <c r="G91" s="2"/>
       <c r="H91" s="3" t="s">
         <v>14</v>
       </c>
@@ -4320,7 +4324,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -4328,21 +4332,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.08984375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.08984375" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="15.08984375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.453125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="16" max="26" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="15.08984375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.54296875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.81640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.08984375" customWidth="1" collapsed="1"/>
+    <col min="16" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5770,11 +5774,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5954,29 +5958,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.453125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.453125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.453125" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="19.54296875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
-    <col min="18" max="26" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.54296875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.54296875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.453125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6058,7 +6062,7 @@
         <v>67</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>514</v>
+        <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>69</v>
@@ -6079,7 +6083,7 @@
         <v>74</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>511</v>
@@ -7534,17 +7538,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="19.26953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="9.7265625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="25.453125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="19.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="16.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="18.1796875" collapsed="true"/>
-    <col min="10" max="26" customWidth="true" style="4" width="8.7265625" collapsed="true"/>
-    <col min="27" max="16384" style="4" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.26953125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7265625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.453125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.453125" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="26" width="8.7265625" style="4" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="14.453125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8803,19 +8807,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="29" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="29" width="22.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="29" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="29" width="9.08984375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="29" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="13.08984375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="29" width="21.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="29" width="25.453125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="29" width="14.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="29" width="21.453125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="29" width="12.08984375" collapsed="true"/>
-    <col min="12" max="26" customWidth="true" style="29" width="8.7265625" collapsed="true"/>
-    <col min="27" max="16384" style="29" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.54296875" style="29" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.08984375" style="29" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.08984375" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.26953125" style="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.453125" style="29" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.54296875" style="29" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.453125" style="29" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.08984375" style="29" customWidth="1" collapsed="1"/>
+    <col min="12" max="26" width="8.7265625" style="29" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="14.453125" style="29" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -10186,17 +10190,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10645,15 +10649,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="29" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="29" width="21.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="29" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="29" width="8.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="29" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="29" width="19.26953125" collapsed="true"/>
-    <col min="7" max="8" style="29" width="14.453125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="29" width="15.7265625" collapsed="true"/>
-    <col min="10" max="16384" style="29" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.81640625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.90625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.26953125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14.453125" style="29" collapsed="1"/>
+    <col min="9" max="9" width="15.7265625" style="29" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="14.453125" style="29" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10994,13 +10998,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11488,17 +11492,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.08984375" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="14.453125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="29.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="12" max="14" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.08984375" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="14.453125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="14.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/test-resources/HRM_TestData.xlsx
+++ b/test-resources/HRM_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesh\git\OrangeHRMAutomation\test-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schakil\git\OrangeHRMAutomation\test-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F949E27-BE6E-443A-8DAB-95AB7E6BACC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BF686A-0B0A-4CDD-BA51-B7D33F5C658A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="755" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="572">
   <si>
     <t>S. No</t>
   </si>
@@ -805,12 +805,6 @@
     <t>Sub unit-1</t>
   </si>
   <si>
-    <t>John Adam smZh</t>
-  </si>
-  <si>
-    <t>0044</t>
-  </si>
-  <si>
     <t>Amanda</t>
   </si>
   <si>
@@ -1135,9 +1129,6 @@
     <t>15Basketball</t>
   </si>
   <si>
-    <t>Odis Adalwin</t>
-  </si>
-  <si>
     <t>purohit</t>
   </si>
   <si>
@@ -1207,15 +1198,9 @@
     <t>Leave description</t>
   </si>
   <si>
-    <t>JadineBfVc</t>
-  </si>
-  <si>
     <t>HaLifaX_123$</t>
   </si>
   <si>
-    <t>Holiday</t>
-  </si>
-  <si>
     <t>May/20/2020</t>
   </si>
   <si>
@@ -1225,9 +1210,6 @@
     <t>personal Leave</t>
   </si>
   <si>
-    <t>JohnfyzT</t>
-  </si>
-  <si>
     <t>Lalita_123$</t>
   </si>
   <si>
@@ -1318,9 +1300,6 @@
     <t>Recruitment Manager</t>
   </si>
   <si>
-    <t>seleniumtest</t>
-  </si>
-  <si>
     <t>Apple_123@</t>
   </si>
   <si>
@@ -1369,9 +1348,6 @@
     <t>384 - Give verbal warning</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>case 1235</t>
   </si>
   <si>
@@ -1559,14 +1535,226 @@
   </si>
   <si>
     <t>Vizag</t>
+  </si>
+  <si>
+    <t>John Adam tvsl</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>ChinakuTuCp</t>
+  </si>
+  <si>
+    <t>Jacob Chris Rjbx</t>
+  </si>
+  <si>
+    <t>London Office</t>
+  </si>
+  <si>
+    <t>Steve John Tnqk</t>
+  </si>
+  <si>
+    <t>Adam Ricky CKHh</t>
+  </si>
+  <si>
+    <t>SingaporedrWYCm</t>
+  </si>
+  <si>
+    <t>Victor Stephen RBsu</t>
+  </si>
+  <si>
+    <t>Rebecca Harmony</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>Emily Harris</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>Amanda Roy Hqsd</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>Kiyara Hu</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>John Adam ILkW</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>Jadine Jackie</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>Khloe Jayden</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>Syiqah Jie</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>GoutamqrvU</t>
+  </si>
+  <si>
+    <t>October/20/2020</t>
+  </si>
+  <si>
+    <t>October/21/2020</t>
+  </si>
+  <si>
+    <t>CassidyfjfF</t>
+  </si>
+  <si>
+    <t>July/10/2020</t>
+  </si>
+  <si>
+    <t>July/11/2020</t>
+  </si>
+  <si>
+    <t>CassidyZNae</t>
+  </si>
+  <si>
+    <t>October/22/2020</t>
+  </si>
+  <si>
+    <t>BrodyTZkV</t>
+  </si>
+  <si>
+    <t>BrodyQJIP</t>
+  </si>
+  <si>
+    <t>AndrewpdEv</t>
+  </si>
+  <si>
+    <t>GregtGNt</t>
+  </si>
+  <si>
+    <t>June/02/2020</t>
+  </si>
+  <si>
+    <t>June/03/2020</t>
+  </si>
+  <si>
+    <t>FionaoTkk</t>
+  </si>
+  <si>
+    <t>AliceDMBf</t>
+  </si>
+  <si>
+    <t>AaliyahPvlw</t>
+  </si>
+  <si>
+    <t>CharliemaTd</t>
+  </si>
+  <si>
+    <t>CecilepsV</t>
+  </si>
+  <si>
+    <t>CharliencAj</t>
+  </si>
+  <si>
+    <t>BrodyOPGf</t>
+  </si>
+  <si>
+    <t>CassidynpoH</t>
+  </si>
+  <si>
+    <t>BrodyuiAC</t>
+  </si>
+  <si>
+    <t>DanielqKhM</t>
+  </si>
+  <si>
+    <t>CharlielHkm</t>
+  </si>
+  <si>
+    <t>Adam Ricky purohit</t>
+  </si>
+  <si>
+    <t>Jiaming Lee</t>
+  </si>
+  <si>
+    <t>Jacqueline White</t>
+  </si>
+  <si>
+    <t>Sun, 19 Jul 2020</t>
+  </si>
+  <si>
+    <t>Ryan Parker</t>
+  </si>
+  <si>
+    <t>John Adam mSII</t>
+  </si>
+  <si>
+    <t>Yi Ling Marcus</t>
+  </si>
+  <si>
+    <t>David Morris</t>
+  </si>
+  <si>
+    <t>Jasmine Morgan</t>
+  </si>
+  <si>
+    <t>Roy George mESe</t>
+  </si>
+  <si>
+    <t>John Adam PEhC</t>
+  </si>
+  <si>
+    <t>Mon, 13 Jul 2020</t>
+  </si>
+  <si>
+    <t>Steve John jOBa</t>
+  </si>
+  <si>
+    <t>Amanda Roy nmpo</t>
+  </si>
+  <si>
+    <t>Jacob Chris MRuC</t>
+  </si>
+  <si>
+    <t>Jadine purohit</t>
+  </si>
+  <si>
+    <t>Melan Peiris</t>
+  </si>
+  <si>
+    <t>Jordan Amester Mathews</t>
+  </si>
+  <si>
+    <t>Cecil purohit</t>
+  </si>
+  <si>
+    <t>Chenzira purohit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1587,18 +1775,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1626,19 +1808,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39994506668294322"/>
-        <bgColor rgb="FFF28E86"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor rgb="FFC27BA0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1681,6 +1851,36 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39991454817346722"/>
+        <bgColor rgb="FFC27BA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39991454817346722"/>
+        <bgColor rgb="FFC27BA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39991454817346722"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39991454817346722"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39991454817346722"/>
+        <bgColor rgb="FFF28E86"/>
       </patternFill>
     </fill>
   </fills>
@@ -1738,7 +1938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1765,30 +1965,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1800,7 +1986,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,11 +1995,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1825,11 +2011,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1841,8 +2027,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2064,114 +2263,112 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91:G100"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.90625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.90625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="65.6328125" collapsed="true"/>
+    <col min="1" max="1" width="5.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.90625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.90625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="65.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="36" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9" s="28" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -2182,25 +2379,25 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
       <c r="H5" t="s">
         <v>17</v>
       </c>
@@ -2209,25 +2406,25 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -2236,25 +2433,25 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="H7" t="s">
         <v>17</v>
       </c>
@@ -2263,25 +2460,25 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="H8" t="s">
         <v>17</v>
       </c>
@@ -2290,25 +2487,25 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
       <c r="H9" t="s">
         <v>17</v>
       </c>
@@ -2317,25 +2514,25 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
       <c r="H10" t="s">
         <v>17</v>
       </c>
@@ -2344,25 +2541,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
       <c r="H11" t="s">
         <v>17</v>
       </c>
@@ -2371,25 +2568,25 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
       <c r="H12" t="s">
         <v>17</v>
       </c>
@@ -2397,68 +2594,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H15" t="s">
@@ -2469,25 +2666,25 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H16" t="s">
@@ -2498,504 +2695,504 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A24" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A35" s="46" t="s">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A35" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="11"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H38" t="s">
@@ -3006,1095 +3203,1095 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A46" s="46" t="s">
+    <row r="46" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A46" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
     </row>
     <row r="47" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11" t="s">
+      <c r="G47" s="10"/>
+      <c r="H47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="11"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="11"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="11"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="11"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="11"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A57" s="46" t="s">
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A57" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
     </row>
     <row r="58" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11" t="s">
+      <c r="G58" s="10"/>
+      <c r="H58" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I58" s="11"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="11"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="11"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="11"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="11"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="11"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="11"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="11"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="11"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A68" s="46" t="s">
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A68" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
     </row>
     <row r="69" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11" t="s">
+      <c r="G69" s="10"/>
+      <c r="H69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I69" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="11"/>
+      <c r="G70" s="10"/>
       <c r="H70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="11"/>
+      <c r="G71" s="10"/>
       <c r="H71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="11"/>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="11"/>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="11"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="11"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="11"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="11"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A79" s="46" t="s">
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A79" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
     </row>
     <row r="80" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="11"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="11"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="11"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="11"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="11"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="11"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="11"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="11"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="11"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:9" s="37" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A90" s="46" t="s">
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:9" s="29" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A90" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
     </row>
     <row r="91" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="34" t="s">
         <v>208</v>
       </c>
       <c r="B91" t="s">
@@ -4103,209 +4300,209 @@
       <c r="C91" t="s">
         <v>210</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F91" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11" t="s">
+      <c r="G91" s="10"/>
+      <c r="H91" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I91" s="11"/>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="34" t="s">
         <v>212</v>
       </c>
       <c r="B92" t="s">
         <v>209</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="11"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="34" t="s">
         <v>214</v>
       </c>
       <c r="B93" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="11"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="34" t="s">
         <v>216</v>
       </c>
       <c r="B94" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="11"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="34" t="s">
         <v>218</v>
       </c>
       <c r="B95" t="s">
         <v>209</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="11"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="34" t="s">
         <v>220</v>
       </c>
       <c r="B96" t="s">
         <v>209</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="11"/>
+      <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="12.5" customHeight="1">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="34" t="s">
         <v>222</v>
       </c>
       <c r="B97" t="s">
         <v>209</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F97" s="12" t="s">
+      <c r="F97" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="11"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="12.5" customHeight="1">
-      <c r="A98" s="42" t="s">
+      <c r="A98" s="34" t="s">
         <v>224</v>
       </c>
       <c r="B98" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="11"/>
+      <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="12.5" customHeight="1">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="34" t="s">
         <v>226</v>
       </c>
       <c r="B99" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F99" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="11"/>
+      <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" ht="12.5" customHeight="1">
-      <c r="A100" s="42" t="s">
+      <c r="A100" s="34" t="s">
         <v>228</v>
       </c>
       <c r="B100" t="s">
         <v>209</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="11"/>
+      <c r="G100" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -4325,29 +4522,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.08984375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.08984375" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="15.08984375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.453125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="16" max="26" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="15.08984375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.54296875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.81640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.08984375" customWidth="1" collapsed="1"/>
+    <col min="16" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1">
@@ -4361,44 +4558,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>243</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4414,19 +4611,19 @@
         <v>246</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>395</v>
+        <v>483</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>390</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -4435,7 +4632,7 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4451,19 +4648,19 @@
         <v>246</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>395</v>
+        <v>486</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>390</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -4472,7 +4669,7 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4488,19 +4685,19 @@
         <v>246</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>405</v>
+        <v>489</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>399</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4509,7 +4706,7 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4525,19 +4722,19 @@
         <v>246</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>408</v>
+        <v>491</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>402</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4546,7 +4743,7 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4562,19 +4759,19 @@
         <v>246</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>411</v>
+        <v>493</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>405</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -4583,7 +4780,7 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4599,19 +4796,19 @@
         <v>246</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="H7" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>407</v>
       </c>
+      <c r="H7" s="37" t="s">
+        <v>401</v>
+      </c>
       <c r="I7" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -4620,7 +4817,7 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4636,19 +4833,19 @@
         <v>246</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>407</v>
+        <v>497</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>401</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -4657,7 +4854,7 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4673,19 +4870,19 @@
         <v>246</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>418</v>
+        <v>498</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>412</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -4694,7 +4891,7 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4710,19 +4907,19 @@
         <v>246</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>407</v>
+        <v>499</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>401</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4731,7 +4928,7 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="12" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4747,19 +4944,19 @@
         <v>246</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>420</v>
+        <v>500</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>414</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -5758,7 +5955,7 @@
     <row r="1000" ht="12" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{75734A7F-9E88-4242-BA25-3F6ECECDCB5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5775,181 +5972,181 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="29"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="29"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="29"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="29"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5958,577 +6155,593 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.453125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.453125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.453125" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="19.54296875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.08984375" collapsed="true"/>
-    <col min="18" max="26" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.54296875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.54296875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.453125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.08984375" customWidth="1" collapsed="1"/>
+    <col min="18" max="26" width="8.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="22" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="12" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="14" t="s">
         <v>249</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="12" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" ht="12" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="12" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="12" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="12" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="J9" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="12" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="12" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M11" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N11" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="O2" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="M3" s="22" t="s">
+      <c r="O11" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="N3" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1">
-      <c r="A4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-    </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1">
-      <c r="A5" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1">
-      <c r="A7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1">
-      <c r="A8" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1">
-      <c r="A9" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1">
-      <c r="A10" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1">
-      <c r="A11" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="P11" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1"/>
     <row r="13" spans="1:17" ht="12" customHeight="1"/>
@@ -7521,7 +7734,7 @@
     <row r="1000" ht="12" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5F8279C1-CBD4-49EC-8B1F-1F53804F6095}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7533,55 +7746,55 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="22" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="22" width="19.26953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="22" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="22" width="9.7265625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="22" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="22" width="25.453125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="22" width="19.453125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="22" width="16.7265625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="22" width="18.1796875" collapsed="true"/>
-    <col min="10" max="26" customWidth="true" style="22" width="8.7265625" collapsed="true"/>
-    <col min="27" max="16384" style="22" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" style="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.26953125" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7265625" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" style="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.453125" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.453125" style="14" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7265625" style="14" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.1796875" style="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="26" width="8.7265625" style="14" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="14.453125" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="I1" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7597,21 +7810,21 @@
         <v>246</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M2" s="26"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7632,7 +7845,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -7653,7 +7866,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="12" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -7674,7 +7887,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -7695,7 +7908,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7716,7 +7929,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -7737,7 +7950,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -7758,7 +7971,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -7779,7 +7992,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -8790,7 +9003,7 @@
     <row r="1000" ht="12" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D764E69B-C868-4B9D-8D81-A98491B36448}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8802,24 +9015,24 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="22.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="9.08984375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="13.08984375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="21.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="25.453125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="14.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="21.453125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="12.08984375" collapsed="true"/>
-    <col min="12" max="26" customWidth="true" style="4" width="8.7265625" collapsed="true"/>
-    <col min="27" max="16384" style="4" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.54296875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.08984375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.08984375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.26953125" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.453125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.54296875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.453125" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.08984375" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="26" width="8.7265625" style="4" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="14.453125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
@@ -8833,35 +9046,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -8875,26 +9088,26 @@
       </c>
       <c r="F2"/>
       <c r="G2" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -8907,26 +9120,26 @@
         <v>246</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="K3" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -8940,26 +9153,26 @@
       </c>
       <c r="F4"/>
       <c r="G4" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8972,26 +9185,26 @@
         <v>246</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -9004,26 +9217,26 @@
         <v>246</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -9036,26 +9249,26 @@
         <v>246</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="K7" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -9068,26 +9281,26 @@
         <v>246</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="K8" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -9100,26 +9313,26 @@
         <v>246</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K9" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -9132,26 +9345,26 @@
         <v>246</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K10" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K10" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -9164,18 +9377,18 @@
         <v>246</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="K11" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="K11" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10170,7 +10383,7 @@
     <row r="1000" ht="12" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8BCA9123-1020-44DE-972D-942F509442B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10185,22 +10398,22 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.36328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.36328125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.36328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.5" customHeight="1">
@@ -10214,421 +10427,475 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="G2" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="H2" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="L2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F3" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="I4" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" t="s">
+        <v>512</v>
+      </c>
+      <c r="M4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" t="s">
+        <v>338</v>
+      </c>
+      <c r="M5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="L6" t="s">
+        <v>515</v>
+      </c>
+      <c r="M6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="G7" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="L7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="L8" t="s">
+        <v>519</v>
+      </c>
+      <c r="M8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" t="s">
+        <v>521</v>
+      </c>
+      <c r="M9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="L10" t="s">
+        <v>523</v>
+      </c>
+      <c r="M10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.5" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="M2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="I11" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="K11" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>372</v>
+      <c r="L11" t="s">
+        <v>525</v>
+      </c>
+      <c r="M11" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="12.5" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10641,342 +10908,360 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="21.81640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="8.90625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="19.26953125" collapsed="true"/>
-    <col min="7" max="8" style="4" width="14.453125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="15.7265625" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.81640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.90625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.26953125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14.453125" style="4" collapsed="1"/>
+    <col min="9" max="9" width="15.7265625" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="14.453125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.5" customHeight="1">
+    <row r="1" spans="1:12" ht="12.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A2" s="45" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>398</v>
+      <c r="D3" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>402</v>
+      <c r="D4" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>404</v>
+        <v>528</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>405</v>
+        <v>534</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A5" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>246</v>
+      <c r="D5" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A6" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>246</v>
+      <c r="D6" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A7" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>246</v>
+      <c r="D7" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>413</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A8" s="45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>246</v>
+      <c r="D8" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A9" s="45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>246</v>
+      <c r="D9" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>417</v>
+        <v>539</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A10" s="45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>246</v>
+      <c r="D10" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A11" s="45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.5" customHeight="1">
+      <c r="A11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>246</v>
+      <c r="D11" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -10990,21 +11275,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.36328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.90625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" customHeight="1">
@@ -11018,464 +11303,483 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G6" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="H8" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="G9" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F10" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-    </row>
-    <row r="11" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11488,25 +11792,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.1796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.08984375" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="14.453125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="29.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="12" max="14" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.08984375" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="14.453125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="14.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.5" customHeight="1">
@@ -11520,536 +11824,615 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="N1" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H2" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="K2" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="H3" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F4" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="J6" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.5" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="K11" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>462</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>466</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>470</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>478</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-    </row>
-    <row r="11" spans="1:26" ht="12.5" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>481</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
